--- a/Haushüter_App-Kalk Gruppe 42.xlsx
+++ b/Haushüter_App-Kalk Gruppe 42.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle 1 HW" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Kalkulation</t>
   </si>
@@ -31,9 +31,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>Listeneinkaufspreis</t>
-  </si>
-  <si>
     <t>Liefererrabatt</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gesamtsumme: </t>
-  </si>
-  <si>
-    <t>Entwicklung:</t>
   </si>
   <si>
     <t>Konzeption, Planung</t>
@@ -234,18 +228,6 @@
     </r>
   </si>
   <si>
-    <t>S_</t>
-  </si>
-  <si>
-    <t>Z_</t>
-  </si>
-  <si>
-    <t>R_</t>
-  </si>
-  <si>
-    <t>Li__</t>
-  </si>
-  <si>
     <t>besser als Text / Word-Dokument</t>
   </si>
   <si>
@@ -264,9 +246,6 @@
     <t>Projekt: Haushüter</t>
   </si>
   <si>
-    <t xml:space="preserve">Einkauf DSL </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kalkulation </t>
   </si>
   <si>
@@ -309,9 +288,6 @@
     <t>Tablets (inkl. Schutzhülle)</t>
   </si>
   <si>
-    <t xml:space="preserve">weitere HW: </t>
-  </si>
-  <si>
     <t>Telefon + Headset</t>
   </si>
   <si>
@@ -322,15 +298,46 @@
   </si>
   <si>
     <t>Notebooksbilliger</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Acronis</t>
+  </si>
+  <si>
+    <t>Listenverkaufspreis (Netto)</t>
+  </si>
+  <si>
+    <t>Rechnungspreis</t>
+  </si>
+  <si>
+    <t>Zielverkaufspreis</t>
+  </si>
+  <si>
+    <t>Selbstkosten</t>
+  </si>
+  <si>
+    <t>Aufbau</t>
+  </si>
+  <si>
+    <t>Entwicklung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0\ %"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -636,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -854,6 +861,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -958,16 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,18 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,9 +1178,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,12 +1190,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,12 +1197,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1236,9 +1218,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1254,8 +1233,47 @@
     <xf numFmtId="44" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1543,10 +1561,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,18 +1572,20 @@
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
-    <col min="10" max="13" width="3.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="2.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="1" customWidth="1"/>
     <col min="14" max="21" width="5.28515625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -1575,19 +1595,19 @@
       <c r="G1" s="20"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="18"/>
-      <c r="B2" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -1597,9 +1617,9 @@
       <c r="G3" s="20"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
@@ -1609,10 +1629,10 @@
       <c r="G4" s="20"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24"/>
@@ -1621,9 +1641,9 @@
       <c r="G5" s="20"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="111" t="s">
-        <v>27</v>
+    <row r="6" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="108" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="20"/>
@@ -1633,819 +1653,892 @@
       <c r="G6" s="20"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="102">
+        <v>21</v>
+      </c>
+      <c r="E7" s="99">
         <v>5</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="46">
+        <v>22</v>
+      </c>
+      <c r="G7" s="43">
         <f>E7*12</f>
         <v>60</v>
       </c>
-      <c r="H7" s="43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="123" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="s">
+      <c r="H7" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="115" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="138"/>
+      <c r="G8" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="138"/>
+    </row>
+    <row r="9" spans="1:11" s="115" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="E9" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="136"/>
+      <c r="G9" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="136"/>
+    </row>
+    <row r="10" spans="1:11" s="115" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="118"/>
+      <c r="B10" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110">
+        <v>1</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="139">
+        <f>A11*D11/$D$21</f>
+        <v>0.12064289542949032</v>
+      </c>
+      <c r="D11" s="121">
+        <v>754</v>
+      </c>
+      <c r="E11" s="139">
+        <f>A11*F11/$F$21</f>
+        <v>0.11161953780572978</v>
+      </c>
+      <c r="F11" s="121">
+        <v>648.86</v>
+      </c>
+      <c r="G11" s="139">
+        <f>A11*H11/$H$21</f>
+        <v>7.5373472159348129E-2</v>
+      </c>
+      <c r="H11" s="132">
+        <v>9.99</v>
+      </c>
+      <c r="K11" s="146"/>
+    </row>
+    <row r="12" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110">
+        <v>1</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="139">
+        <f t="shared" ref="C12:C13" si="0">A12*D12/$D$21</f>
+        <v>3.2000768018432442E-2</v>
+      </c>
+      <c r="D12" s="121">
+        <v>200</v>
+      </c>
+      <c r="E12" s="139">
+        <f t="shared" ref="E12:E20" si="1">A12*F12/$F$21</f>
+        <v>3.7828092906759515E-2</v>
+      </c>
+      <c r="F12" s="132">
+        <v>219.9</v>
+      </c>
+      <c r="G12" s="139">
+        <f t="shared" ref="G12:G20" si="2">A12*H12/$H$21</f>
+        <v>3.7724460540214277E-2</v>
+      </c>
+      <c r="H12" s="132">
+        <v>5</v>
+      </c>
+      <c r="K12" s="146"/>
+    </row>
+    <row r="13" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="110">
+        <v>6</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="139">
+        <f t="shared" si="0"/>
+        <v>0.15120362888709329</v>
+      </c>
+      <c r="D13" s="121">
+        <v>157.5</v>
+      </c>
+      <c r="E13" s="139">
+        <f t="shared" si="1"/>
+        <v>0.13304341543468762</v>
+      </c>
+      <c r="F13" s="121">
+        <v>128.9</v>
+      </c>
+      <c r="G13" s="139">
+        <f t="shared" si="2"/>
+        <v>8.5559076505205986E-2</v>
+      </c>
+      <c r="H13" s="132">
+        <v>1.89</v>
+      </c>
+      <c r="K13" s="146"/>
+    </row>
+    <row r="14" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="110">
+        <v>4</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="139">
+        <f>A14*D14/$D$21</f>
+        <v>1.5993983855612535E-2</v>
+      </c>
+      <c r="D14" s="121">
+        <v>24.99</v>
+      </c>
+      <c r="E14" s="139">
+        <f t="shared" si="1"/>
+        <v>2.0636007390154028E-2</v>
+      </c>
+      <c r="F14" s="132">
+        <v>29.99</v>
+      </c>
+      <c r="G14" s="139">
+        <f t="shared" si="2"/>
+        <v>2.9877772747849706E-2</v>
+      </c>
+      <c r="H14" s="132">
+        <v>0.99</v>
+      </c>
+      <c r="K14" s="146"/>
+    </row>
+    <row r="15" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110">
+        <v>1</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="139">
+        <f t="shared" ref="C15:C20" si="3">A15*D15/$D$21</f>
+        <v>1.9520468491243791E-2</v>
+      </c>
+      <c r="D15" s="121">
+        <v>122</v>
+      </c>
+      <c r="E15" s="139">
+        <f t="shared" si="1"/>
+        <v>2.5801890200476851E-2</v>
+      </c>
+      <c r="F15" s="132">
+        <v>149.99</v>
+      </c>
+      <c r="G15" s="139">
+        <f t="shared" si="2"/>
+        <v>3.3952014486192852E-2</v>
+      </c>
+      <c r="H15" s="132">
+        <v>4.5</v>
+      </c>
+      <c r="K15" s="146"/>
+    </row>
+    <row r="16" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="110">
+        <v>2</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="139">
+        <f t="shared" si="3"/>
+        <v>0.20768498443962657</v>
+      </c>
+      <c r="D16" s="121">
+        <v>649</v>
+      </c>
+      <c r="E16" s="139">
+        <f t="shared" si="1"/>
+        <v>0.17168002146860387</v>
+      </c>
+      <c r="F16" s="132">
+        <v>499</v>
+      </c>
+      <c r="G16" s="139">
+        <f t="shared" si="2"/>
+        <v>0.12071827372868568</v>
+      </c>
+      <c r="H16" s="132">
+        <v>8</v>
+      </c>
+      <c r="K16" s="146"/>
+    </row>
+    <row r="17" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="110">
+        <v>2</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="139">
+        <f t="shared" si="3"/>
+        <v>0.22363736729681516</v>
+      </c>
+      <c r="D17" s="121">
+        <f>159.9+538.95</f>
+        <v>698.85</v>
+      </c>
+      <c r="E17" s="139">
+        <f t="shared" si="1"/>
+        <v>0.27243107855651161</v>
+      </c>
+      <c r="F17" s="132">
+        <f>621.85+169.99</f>
+        <v>791.84</v>
+      </c>
+      <c r="G17" s="139">
+        <f t="shared" si="2"/>
+        <v>0.15089784216085711</v>
+      </c>
+      <c r="H17" s="132">
+        <v>10</v>
+      </c>
+      <c r="K17" s="146"/>
+    </row>
+    <row r="18" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="110">
+        <v>1</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="139">
+        <f t="shared" si="3"/>
+        <v>1.7598822371736923E-2</v>
+      </c>
+      <c r="D18" s="121">
+        <v>109.99</v>
+      </c>
+      <c r="E18" s="139">
+        <f t="shared" si="1"/>
+        <v>2.2344206401359673E-2</v>
+      </c>
+      <c r="F18" s="132">
+        <v>129.88999999999999</v>
+      </c>
+      <c r="G18" s="139">
+        <f t="shared" si="2"/>
+        <v>2.8595141089482422E-2</v>
+      </c>
+      <c r="H18" s="132">
+        <v>3.79</v>
+      </c>
+      <c r="K18" s="146"/>
+    </row>
+    <row r="19" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="110">
+        <v>4</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="139">
+        <f t="shared" si="3"/>
+        <v>9.8146355512532299E-2</v>
+      </c>
+      <c r="D19" s="121">
+        <f>126.36+26.99</f>
+        <v>153.35</v>
+      </c>
+      <c r="E19" s="139">
+        <f t="shared" si="1"/>
+        <v>8.5936344213282334E-2</v>
+      </c>
+      <c r="F19" s="132">
+        <f>55.99+68.9</f>
+        <v>124.89000000000001</v>
+      </c>
+      <c r="G19" s="139">
+        <f t="shared" si="2"/>
+        <v>6.005734118002113E-2</v>
+      </c>
+      <c r="H19" s="132">
+        <v>1.99</v>
+      </c>
+      <c r="K19" s="146"/>
+    </row>
+    <row r="20" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110">
+        <v>10</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="139">
+        <f t="shared" si="3"/>
+        <v>0.11357072569741676</v>
+      </c>
+      <c r="D20" s="121">
+        <f>15.99+54.99</f>
+        <v>70.98</v>
+      </c>
+      <c r="E20" s="139">
+        <f t="shared" si="1"/>
+        <v>0.11867940562243467</v>
+      </c>
+      <c r="F20" s="121">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="G20" s="139">
+        <f t="shared" si="2"/>
+        <v>0.37724460540214277</v>
+      </c>
+      <c r="H20" s="121">
+        <v>5</v>
+      </c>
+      <c r="K20" s="146"/>
+    </row>
+    <row r="21" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
+      <c r="B21" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="121">
+        <f>SUM($A$11*D11+$A$12*D12+$A$13*D13+$A$14*D14+$A$15*D15+$A$16*D16+$A$17*D17+$A$18*D18+$A$19*D19+$A$20*D20)</f>
+        <v>6249.8499999999995</v>
+      </c>
+      <c r="E21" s="142"/>
+      <c r="F21" s="121">
+        <f t="shared" ref="F21" si="4">SUM($A$11*F11+$A$12*F12+$A$13*F13+$A$14*F14+$A$15*F15+$A$16*F16+$A$17*F17+$A$18*F18+$A$19*F19+$A$20*F20)</f>
+        <v>5813.14</v>
+      </c>
+      <c r="G21" s="142"/>
+      <c r="H21" s="121">
+        <f>SUM($A$11*H11+$A$12*H12+$A$13*H13+$A$14*H14+$A$15*H15+$A$16*H16+$A$17*H17+$A$18*H18+$A$19*H19+$A$20*H20)</f>
+        <v>132.54</v>
+      </c>
+      <c r="K21" s="146"/>
+    </row>
+    <row r="22" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
+      <c r="B22" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="141">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="131">
+        <f>$C$22*D21</f>
+        <v>624.98500000000001</v>
+      </c>
+      <c r="E22" s="143"/>
+      <c r="F22" s="131">
+        <f t="shared" ref="F22:H22" si="5">$C$22*F21</f>
+        <v>581.31400000000008</v>
+      </c>
+      <c r="G22" s="143"/>
+      <c r="H22" s="131">
+        <f t="shared" si="5"/>
+        <v>13.254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" s="115" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="137" t="str">
+        <f>C32</f>
+        <v>Kauf a)</v>
+      </c>
+      <c r="D25" s="138"/>
+      <c r="E25" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="138"/>
+      <c r="G25" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="138"/>
+    </row>
+    <row r="26" spans="1:11" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
+    </row>
+    <row r="27" spans="1:11" s="115" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="118">
+        <v>1</v>
+      </c>
+      <c r="B27" s="119"/>
+      <c r="C27" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="112" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="110">
+        <v>1</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="139">
+        <f>$A28*D28/D$29</f>
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="121">
+        <f>100*12</f>
+        <v>1200</v>
+      </c>
+      <c r="E28" s="139">
+        <f>$A28*F28/F$29</f>
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="121">
+        <f>100*12</f>
+        <v>1200</v>
+      </c>
+      <c r="G28" s="139">
+        <f>$A28*H28/H$29</f>
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="121">
+        <f>100*12</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="112" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
+      <c r="B29" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="122">
+        <f>D28*$E$7</f>
+        <v>6000</v>
+      </c>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122">
+        <f>F28*$E$7</f>
+        <v>6000</v>
+      </c>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122">
+        <f>H28*$E$7</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="124"/>
+    </row>
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="124"/>
+    </row>
+    <row r="32" spans="1:11" s="115" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="114"/>
-    </row>
-    <row r="9" spans="1:8" s="123" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="127"/>
-    </row>
-    <row r="10" spans="1:8" s="123" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="117">
-        <v>1</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="146">
-        <f t="shared" ref="C11:E13" si="0">A11*D11/$D$21</f>
-        <v>0.20777359842378651</v>
-      </c>
-      <c r="D11" s="133">
-        <v>754</v>
-      </c>
-      <c r="E11" s="146">
-        <f>A11*F11/$D$21</f>
-        <v>0.17880103060113808</v>
-      </c>
-      <c r="F11" s="133">
-        <v>648.86</v>
-      </c>
-      <c r="G11" s="146">
-        <f>A11*H11/$D$21</f>
-        <v>2.7528623982143595E-3</v>
-      </c>
-      <c r="H11" s="145">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="117">
-        <v>1</v>
-      </c>
-      <c r="B12" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="146">
-        <f t="shared" si="0"/>
-        <v>5.5112360324611802E-2</v>
-      </c>
-      <c r="D12" s="133">
-        <v>200</v>
-      </c>
-      <c r="E12" s="146">
-        <f t="shared" ref="E12:E20" si="1">A12*F12/$D$21</f>
-        <v>6.0596040176910684E-2</v>
-      </c>
-      <c r="F12" s="145">
-        <v>219.9</v>
-      </c>
-      <c r="G12" s="146">
-        <f t="shared" ref="G12:G20" si="2">A12*H12/$D$21</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117">
-        <v>6</v>
-      </c>
-      <c r="B13" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="146">
-        <f t="shared" si="0"/>
-        <v>0.26040590253379076</v>
-      </c>
-      <c r="D13" s="133">
-        <v>157.5</v>
-      </c>
-      <c r="E13" s="146">
-        <f t="shared" si="1"/>
-        <v>0.21311949737527389</v>
-      </c>
-      <c r="F13" s="133">
-        <v>128.9</v>
-      </c>
-      <c r="G13" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117">
-        <v>4</v>
-      </c>
-      <c r="B14" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="146">
-        <f>A14*D14/$D$21</f>
-        <v>2.754515769024098E-2</v>
-      </c>
-      <c r="D14" s="133">
-        <v>24.99</v>
-      </c>
-      <c r="E14" s="146">
-        <f t="shared" si="1"/>
-        <v>3.3056393722702158E-2</v>
-      </c>
-      <c r="F14" s="145">
-        <v>29.99</v>
-      </c>
-      <c r="G14" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117">
-        <v>1</v>
-      </c>
-      <c r="B15" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="146">
-        <f t="shared" ref="C15:C20" si="3">A15*D15/$D$21</f>
-        <v>3.36185397980132E-2</v>
-      </c>
-      <c r="D15" s="133">
-        <v>122</v>
-      </c>
-      <c r="E15" s="146">
-        <f t="shared" si="1"/>
-        <v>4.1331514625442628E-2</v>
-      </c>
-      <c r="F15" s="145">
-        <v>149.99</v>
-      </c>
-      <c r="G15" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117">
-        <v>2</v>
-      </c>
-      <c r="B16" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="146">
-        <f t="shared" si="3"/>
-        <v>0.3852353986690365</v>
-      </c>
-      <c r="D16" s="133">
-        <v>699</v>
-      </c>
-      <c r="E16" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="145">
-        <v>0</v>
-      </c>
-      <c r="G16" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117">
-        <v>2</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="146">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="133">
-        <v>0</v>
-      </c>
-      <c r="E17" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="145">
-        <v>0</v>
-      </c>
-      <c r="G17" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117">
-        <v>1</v>
-      </c>
-      <c r="B18" s="118" t="s">
+      <c r="B32" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="146">
-        <f t="shared" si="3"/>
-        <v>3.030904256052026E-2</v>
-      </c>
-      <c r="D18" s="133">
-        <v>109.99</v>
-      </c>
-      <c r="E18" s="146">
-        <f t="shared" si="1"/>
-        <v>3.5792722412819132E-2</v>
-      </c>
-      <c r="F18" s="145">
-        <v>129.88999999999999</v>
-      </c>
-      <c r="G18" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117">
-        <v>4</v>
-      </c>
-      <c r="B19" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="146">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="133">
-        <v>0</v>
-      </c>
-      <c r="E19" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="145">
-        <v>0</v>
-      </c>
-      <c r="G19" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117">
-        <v>10</v>
-      </c>
-      <c r="B20" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="146">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="133">
-        <v>0</v>
-      </c>
-      <c r="E20" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="133">
-        <v>0</v>
-      </c>
-      <c r="G20" s="146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
-      <c r="B21" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="133">
-        <f>SUM($A$11*D11+$A$12*D12+$A$13*D13+$A$14*D14+$A$15*D15+$A$16*D16+$A$17*D17+$A$18*D18+$A$19*D19+$A$20*D20)</f>
-        <v>3628.95</v>
-      </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133">
-        <f t="shared" ref="E21:H21" si="4">SUM($A$11*F11+$A$12*F12+$A$13*F13+$A$14*F14+$A$15*F15+$A$16*F16+$A$17*F17+$A$18*F18+$A$19*F19+$A$20*F20)</f>
-        <v>2042</v>
-      </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133">
-        <f t="shared" si="4"/>
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="119" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
-      <c r="B22" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="121">
-        <v>0</v>
-      </c>
-      <c r="D22" s="144">
-        <f>C22*D21</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="144">
-        <f>E22*F21</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="144">
-        <f>G22*H21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="69"/>
-    </row>
-    <row r="24" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="72"/>
-    </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="72"/>
-    </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="49"/>
-    </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="49"/>
-    </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="D29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" s="123" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="113" t="str">
-        <f>C36</f>
-        <v>Kauf a)</v>
-      </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="114"/>
-      <c r="G30" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="114"/>
-    </row>
-    <row r="31" spans="1:9" s="123" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="124"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="126" t="str">
-        <f>C37</f>
-        <v>Amazon</v>
-      </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="126" t="str">
-        <f>E37</f>
-        <v>Notebooksbilliger</v>
-      </c>
-      <c r="F31" s="127"/>
-      <c r="G31" s="126" t="str">
-        <f>G37</f>
-        <v>Diverse</v>
-      </c>
-      <c r="H31" s="127"/>
-    </row>
-    <row r="32" spans="1:9" s="123" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="128">
-        <v>1</v>
-      </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="119" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117">
-        <v>2</v>
-      </c>
-      <c r="B33" s="118" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="133">
-        <v>1</v>
-      </c>
-      <c r="E33" s="120"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="133"/>
-    </row>
-    <row r="34" spans="1:9" s="119" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
-      <c r="B34" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="134">
-        <f>D33*$E$7</f>
-        <v>5</v>
-      </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="134">
-        <f>D34</f>
-        <v>5</v>
-      </c>
-      <c r="G34" s="120"/>
-      <c r="H34" s="134">
-        <f>D34</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="45"/>
-      <c r="D35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" s="123" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="113" t="str">
+      <c r="C32" s="137" t="str">
         <f>C8</f>
         <v>Kauf a)</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="42" t="str">
+      <c r="D32" s="138"/>
+      <c r="E32" s="137" t="str">
         <f>E8</f>
         <v>Kauf B)</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="42" t="str">
+      <c r="F32" s="138"/>
+      <c r="G32" s="137" t="str">
         <f>G8</f>
         <v>Miete a)</v>
       </c>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" spans="1:9" s="123" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="126" t="str">
-        <f>C9</f>
-        <v>Amazon</v>
-      </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="126" t="str">
-        <f>E9</f>
-        <v>Notebooksbilliger</v>
-      </c>
-      <c r="F37" s="127"/>
-      <c r="G37" s="126" t="str">
-        <f>G9</f>
-        <v>Diverse</v>
-      </c>
-      <c r="H37" s="127"/>
-    </row>
-    <row r="38" spans="1:9" s="123" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="128">
+      <c r="H32" s="138"/>
+    </row>
+    <row r="33" spans="1:11" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="136"/>
+    </row>
+    <row r="34" spans="1:11" s="115" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="118">
         <v>1</v>
       </c>
-      <c r="B38" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="130" t="s">
+      <c r="B34" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="130" t="s">
+      <c r="E34" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="130" t="s">
+      <c r="G34" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="119" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="117">
+    <row r="35" spans="1:11" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="110">
+        <v>4</v>
+      </c>
+      <c r="B35" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="139">
+        <f>$A35*D35/D$37</f>
+        <v>0.60865139949109415</v>
+      </c>
+      <c r="D35" s="121">
+        <v>299</v>
+      </c>
+      <c r="E35" s="139">
+        <f>$A35*F35/F$37</f>
+        <v>0.60865139949109415</v>
+      </c>
+      <c r="F35" s="121">
+        <v>299</v>
+      </c>
+      <c r="G35" s="139">
+        <f>$A35*H35/H$37</f>
+        <v>0.53373768006065203</v>
+      </c>
+      <c r="H35" s="121">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="110">
+        <v>1</v>
+      </c>
+      <c r="B36" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="139">
+        <f>$A36*D36/D$37</f>
+        <v>0.39134860050890585</v>
+      </c>
+      <c r="D36" s="121">
+        <f>769</f>
+        <v>769</v>
+      </c>
+      <c r="E36" s="139">
+        <f>$A36*F36/F$37</f>
+        <v>0.39134860050890585</v>
+      </c>
+      <c r="F36" s="121">
+        <f>769</f>
+        <v>769</v>
+      </c>
+      <c r="G36" s="139">
+        <f>$A36*H36/H$37</f>
+        <v>0.46626231993934797</v>
+      </c>
+      <c r="H36" s="121">
+        <f>369/12</f>
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="110"/>
+      <c r="B37" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="140"/>
+      <c r="D37" s="121">
+        <f>D35*$A35+D36*$A36</f>
+        <v>1965</v>
+      </c>
+      <c r="E37" s="142"/>
+      <c r="F37" s="121">
+        <f>F35*$A35+F36*$A36</f>
+        <v>1965</v>
+      </c>
+      <c r="G37" s="142"/>
+      <c r="H37" s="121">
+        <f>H35*$A35+H36*$A36</f>
+        <v>65.95</v>
+      </c>
+      <c r="K37" s="146"/>
+    </row>
+    <row r="38" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="110"/>
+      <c r="B38" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="133">
+      <c r="C38" s="141">
         <v>0.1</v>
       </c>
-      <c r="E39" s="120"/>
-      <c r="F39" s="133">
-        <v>0.1</v>
-      </c>
-      <c r="G39" s="120"/>
-      <c r="H39" s="133">
-        <f>F39</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="119" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
-      <c r="B40" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="132">
-        <v>1E-3</v>
-      </c>
-      <c r="D40" s="134">
-        <f>D39*$C40</f>
-        <v>1E-4</v>
-      </c>
-      <c r="E40" s="132"/>
-      <c r="F40" s="134">
-        <f>D40</f>
-        <v>1E-4</v>
-      </c>
-      <c r="G40" s="132"/>
-      <c r="H40" s="134">
-        <f>F40</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="135"/>
-    </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="136"/>
-    </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="136"/>
-    </row>
-    <row r="44" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="136"/>
-    </row>
-    <row r="45" spans="1:9" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="76"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="49"/>
-    </row>
-    <row r="46" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:9" s="139" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="137"/>
-      <c r="B48" s="138" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="142">
-        <f>D27+D34+D45</f>
-        <v>5</v>
-      </c>
-      <c r="E48" s="140"/>
-      <c r="F48" s="142">
-        <f>D48</f>
-        <v>5</v>
-      </c>
-      <c r="G48" s="140"/>
-      <c r="H48" s="142">
-        <f>D48</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="139" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="137"/>
-      <c r="B49" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="143"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="143"/>
-    </row>
-    <row r="50" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="H51" s="37"/>
-    </row>
-    <row r="52" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="H52" s="37"/>
-    </row>
-    <row r="53" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="131">
+        <f>D37*$C38</f>
+        <v>196.5</v>
+      </c>
+      <c r="E38" s="143"/>
+      <c r="F38" s="131">
+        <f>F37*$E38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="143"/>
+      <c r="H38" s="131">
+        <f>H37*$G38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="123"/>
+    </row>
+    <row r="40" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="124"/>
+    </row>
+    <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="144"/>
+    </row>
+    <row r="43" spans="1:11" s="127" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="125"/>
+      <c r="B43" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="129">
+        <f>D$21-D$22+D$29+D$37-D$38</f>
+        <v>13393.365</v>
+      </c>
+      <c r="E43" s="145"/>
+      <c r="F43" s="129">
+        <f>F$21-F$22+F$29+F$37-F$38</f>
+        <v>13196.826000000001</v>
+      </c>
+      <c r="G43" s="145"/>
+      <c r="H43" s="129">
+        <f>H44*G7</f>
+        <v>17114.16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="127" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="125"/>
+      <c r="B44" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="130">
+        <f>D43/$G$7</f>
+        <v>223.22274999999999</v>
+      </c>
+      <c r="E44" s="128"/>
+      <c r="F44" s="130">
+        <f t="shared" ref="F44" si="6">F43/$G$7</f>
+        <v>219.94710000000001</v>
+      </c>
+      <c r="G44" s="128"/>
+      <c r="H44" s="130">
+        <f>H$21-H$22+(H$29/G7)+H$37-H38</f>
+        <v>285.23599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="H45" s="37"/>
+    </row>
+    <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="H46" s="37"/>
+    </row>
+    <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2455,15 +2548,13 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -2472,18 +2563,14 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -2492,8 +2579,6 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -2502,8 +2587,6 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
@@ -2609,65 +2692,27 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -2682,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,7 +2749,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="str">
+      <c r="A1" s="109" t="str">
         <f>'Tabelle 1 HW'!B2</f>
         <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</v>
       </c>
@@ -2719,7 +2764,7 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2733,7 +2778,7 @@
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2745,10 +2790,10 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2769,114 +2814,116 @@
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>46</v>
+      <c r="G7" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="79">
+      <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="79">
+        <v>3</v>
+      </c>
+      <c r="E8" s="79">
+        <v>3</v>
+      </c>
+      <c r="F8" s="79">
+        <f>D8*E8</f>
         <v>9</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="82">
+      <c r="G8" s="80">
+        <v>42</v>
+      </c>
+      <c r="H8" s="80">
+        <f>G8*F8</f>
+        <v>378</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76">
+        <v>2</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76">
         <v>3</v>
       </c>
-      <c r="E8" s="82">
-        <v>2</v>
-      </c>
-      <c r="F8" s="82">
-        <f>D8*E8</f>
+      <c r="B10" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="76">
+        <v>4</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="76">
+        <v>5</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="76">
         <v>6</v>
       </c>
-      <c r="G8" s="83">
-        <v>42</v>
-      </c>
-      <c r="H8" s="83">
-        <f>G8*F8</f>
-        <v>252</v>
-      </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
-        <v>2</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
-        <v>3</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
-        <v>4</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79">
-        <v>5</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
-        <v>6</v>
-      </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2893,22 +2940,22 @@
     <row r="15" spans="1:10" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="64">
+      <c r="D15" s="61">
         <f>SUM(D8:D13)</f>
         <v>3</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64">
+      <c r="E15" s="61"/>
+      <c r="F15" s="61">
         <f t="shared" ref="F15:H15" si="0">SUM(F8:F13)</f>
-        <v>6</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66">
+        <v>9</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="30"/>
@@ -2921,19 +2968,19 @@
       <c r="H17" s="36"/>
     </row>
     <row r="18" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="47">
+      <c r="E18" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="44">
         <f>'Tabelle 1 HW'!G7</f>
         <v>60</v>
       </c>
-      <c r="G18" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="84">
+      <c r="G18" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="81">
         <f>H15/'Tabelle 1 HW'!G7</f>
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -2955,8 +3002,8 @@
   </sheetPr>
   <dimension ref="A2:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,7 +3011,7 @@
     <col min="1" max="1" width="5" style="31" customWidth="1"/>
     <col min="2" max="2" width="41" style="31" customWidth="1"/>
     <col min="3" max="3" width="9" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="31" customWidth="1"/>
@@ -2976,528 +3023,528 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="str">
+      <c r="A2" s="47" t="str">
         <f>'Tabelle 1 HW'!B2</f>
         <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>44</v>
+      <c r="A4" s="47" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51" t="s">
-        <v>49</v>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="53"/>
+      <c r="A7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="31"/>
-      <c r="D8" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>42</v>
+      <c r="D8" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>40</v>
       </c>
       <c r="G8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="55" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="57"/>
+      <c r="A9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
       <c r="C9" s="33"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="str">
+      <c r="A10" s="45" t="str">
         <f>'Tabelle 1 HW'!A8</f>
         <v xml:space="preserve">1.) </v>
       </c>
-      <c r="B10" s="48" t="str">
+      <c r="B10" s="45" t="str">
         <f>'Tabelle 1 HW'!B8</f>
         <v>Hardware</v>
       </c>
-      <c r="D10" s="88">
-        <f>'Tabelle 1 HW'!D27</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="D10" s="85">
+        <f>'Tabelle 1 HW'!D21-'Tabelle 1 HW'!D22</f>
+        <v>5624.8649999999998</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
     </row>
     <row r="11" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
+      <c r="A11" s="45"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="str">
-        <f>'Tabelle 1 HW'!A30</f>
+      <c r="A12" s="45" t="str">
+        <f>'Tabelle 1 HW'!A25</f>
         <v>2.)</v>
       </c>
-      <c r="B12" s="48" t="str">
-        <f>'Tabelle 1 HW'!B30</f>
+      <c r="B12" s="45" t="str">
+        <f>'Tabelle 1 HW'!B25</f>
         <v xml:space="preserve">laufende Kosten (je Jahr) </v>
       </c>
-      <c r="D12" s="88">
-        <f>'Tabelle 1 HW'!D34</f>
-        <v>5</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
+      <c r="D12" s="85">
+        <f>'Tabelle 1 HW'!D29</f>
+        <v>6000</v>
+      </c>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="A13" s="45"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="str">
-        <f>'Tabelle 1 HW'!A36</f>
+      <c r="A14" s="45" t="str">
+        <f>'Tabelle 1 HW'!A32</f>
         <v>3.)</v>
       </c>
-      <c r="B14" s="48" t="str">
-        <f>'Tabelle 1 HW'!B36</f>
-        <v xml:space="preserve">weitere HW: </v>
-      </c>
-      <c r="D14" s="88">
-        <f>'Tabelle 1 HW'!D45</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
+      <c r="B14" s="45" t="str">
+        <f>'Tabelle 1 HW'!B32</f>
+        <v>Software</v>
+      </c>
+      <c r="D14" s="85">
+        <f>'Tabelle 1 HW'!D37-'Tabelle 1 HW'!D38</f>
+        <v>1768.5</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
+      <c r="A15" s="45"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="A16" s="45"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="A17" s="45"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="107">
+        <f>SUM(D10:D17)</f>
+        <v>13393.365</v>
+      </c>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+    </row>
+    <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="52"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+    </row>
+    <row r="20" spans="1:12" s="104" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="110">
-        <f>SUM(D10:D17)</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-    </row>
-    <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="55"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-    </row>
-    <row r="20" spans="1:12" s="107" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103" t="s">
+      <c r="C20" s="101">
+        <v>25</v>
+      </c>
+      <c r="D20" s="102">
+        <f>D18*$C20/100</f>
+        <v>3348.3412499999999</v>
+      </c>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+    </row>
+    <row r="21" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="52"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="104">
-        <v>25</v>
-      </c>
-      <c r="D20" s="105">
-        <f>D18*$C20/100</f>
-        <v>1.25</v>
-      </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-    </row>
-    <row r="21" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="55"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="91">
+      <c r="D22" s="88">
         <f>D18+D20</f>
-        <v>6.25</v>
-      </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="63"/>
+        <v>16741.706249999999</v>
+      </c>
+      <c r="E22" s="89"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
+      <c r="A23" s="45"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="str">
+      <c r="A24" s="55" t="str">
         <f>'Tabelle2 DL'!A4</f>
         <v xml:space="preserve">b) </v>
       </c>
-      <c r="B24" s="58" t="str">
+      <c r="B24" s="55" t="str">
         <f>'Tabelle2 DL'!B4</f>
         <v>Dienstleistung</v>
       </c>
-      <c r="D24" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
+      <c r="D24" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="91"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
+      <c r="A25" s="56"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="95">
+      <c r="A26" s="56"/>
+      <c r="B26" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="92">
         <f>'Tabelle2 DL'!H15</f>
-        <v>252</v>
-      </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
+        <v>378</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
+      <c r="A27" s="45"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="85">
+      <c r="A28" s="45"/>
+      <c r="B28" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="82">
         <v>40</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D28" s="85">
         <f>D26*$C28/100</f>
-        <v>100.8</v>
-      </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="55"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="52"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="91">
+      <c r="A30" s="45"/>
+      <c r="B30" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="88">
         <f>D26+D28</f>
-        <v>352.8</v>
-      </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
+        <v>529.20000000000005</v>
+      </c>
+      <c r="E30" s="89"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="55"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="52"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="A32" s="45"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="61"/>
+      <c r="A33" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="58"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="97">
+      <c r="A34" s="45"/>
+      <c r="B34" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="94">
         <f>D22+D30</f>
-        <v>359.05</v>
-      </c>
-      <c r="E34" s="98">
+        <v>17270.90625</v>
+      </c>
+      <c r="E34" s="95">
         <f>E38-E36</f>
         <v>99</v>
       </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
     </row>
     <row r="35" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
+      <c r="A35" s="45"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="86">
+      <c r="A36" s="45"/>
+      <c r="B36" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="83">
         <v>1</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="98">
+      <c r="D36" s="96"/>
+      <c r="E36" s="95">
         <f>C36</f>
         <v>1</v>
       </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
     </row>
     <row r="37" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="55"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="52"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="99"/>
-      <c r="E38" s="98">
+      <c r="A38" s="45"/>
+      <c r="B38" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="96"/>
+      <c r="E38" s="95">
         <v>100</v>
       </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
     </row>
     <row r="39" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="55"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="52"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="99">
+      <c r="A40" s="45"/>
+      <c r="B40" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="D40" s="96">
         <f>D42-D38</f>
         <v>0</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
     </row>
     <row r="41" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="55"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="52"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="99">
+      <c r="A42" s="45"/>
+      <c r="B42" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="96">
         <f>D38*100/(100-$C40)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
     </row>
     <row r="43" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="55"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="52"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="99">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="83"/>
+      <c r="D44" s="96">
         <f>D42*$C44/100</f>
         <v>0</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
     </row>
     <row r="45" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="55"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="52"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="100">
+      <c r="A46" s="45"/>
+      <c r="B46" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="97">
         <f>D42+D44</f>
         <v>0</v>
       </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="31"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="31"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="31"/>
@@ -3526,7 +3573,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Haushüter_App-Kalk Gruppe 42.xlsx
+++ b/Haushüter_App-Kalk Gruppe 42.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle 1 HW" sheetId="3" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>Gewinnaufschlag (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</t>
-  </si>
-  <si>
     <t>Fritzbox™ 7590</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Gruppe: ISCH Mir EGAL 42 //Switch fehlt (Danke Bene)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0\ %"/>
+    <numFmt numFmtId="164" formatCode="0\ %"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1233,47 +1233,47 @@
     <xf numFmtId="44" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1563,8 +1563,8 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,14 +1597,14 @@
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="18"/>
-      <c r="B2" s="133" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
+      <c r="B2" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,34 +1681,34 @@
       <c r="B8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="137" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="G8" s="137" t="s">
+      <c r="F8" s="144"/>
+      <c r="G8" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="138"/>
+      <c r="H8" s="144"/>
     </row>
     <row r="9" spans="1:11" s="115" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116"/>
       <c r="B9" s="117"/>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="142"/>
+      <c r="E9" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="142"/>
+      <c r="G9" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="136"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="10" spans="1:11" s="115" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="118"/>
@@ -1741,187 +1741,187 @@
       <c r="B11" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="139">
+      <c r="C11" s="133">
         <f>A11*D11/$D$21</f>
         <v>0.12064289542949032</v>
       </c>
       <c r="D11" s="121">
         <v>754</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="133">
         <f>A11*F11/$F$21</f>
         <v>0.11161953780572978</v>
       </c>
       <c r="F11" s="121">
         <v>648.86</v>
       </c>
-      <c r="G11" s="139">
+      <c r="G11" s="133">
         <f>A11*H11/$H$21</f>
         <v>7.5373472159348129E-2</v>
       </c>
       <c r="H11" s="132">
         <v>9.99</v>
       </c>
-      <c r="K11" s="146"/>
+      <c r="K11" s="140"/>
     </row>
     <row r="12" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="110">
         <v>1</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="139">
+        <v>59</v>
+      </c>
+      <c r="C12" s="133">
         <f t="shared" ref="C12:C13" si="0">A12*D12/$D$21</f>
         <v>3.2000768018432442E-2</v>
       </c>
       <c r="D12" s="121">
         <v>200</v>
       </c>
-      <c r="E12" s="139">
+      <c r="E12" s="133">
         <f t="shared" ref="E12:E20" si="1">A12*F12/$F$21</f>
         <v>3.7828092906759515E-2</v>
       </c>
       <c r="F12" s="132">
         <v>219.9</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="133">
         <f t="shared" ref="G12:G20" si="2">A12*H12/$H$21</f>
         <v>3.7724460540214277E-2</v>
       </c>
       <c r="H12" s="132">
         <v>5</v>
       </c>
-      <c r="K12" s="146"/>
+      <c r="K12" s="140"/>
     </row>
     <row r="13" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="110">
         <v>6</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="139">
+        <v>60</v>
+      </c>
+      <c r="C13" s="133">
         <f t="shared" si="0"/>
         <v>0.15120362888709329</v>
       </c>
       <c r="D13" s="121">
         <v>157.5</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="133">
         <f t="shared" si="1"/>
         <v>0.13304341543468762</v>
       </c>
       <c r="F13" s="121">
         <v>128.9</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="133">
         <f t="shared" si="2"/>
         <v>8.5559076505205986E-2</v>
       </c>
       <c r="H13" s="132">
         <v>1.89</v>
       </c>
-      <c r="K13" s="146"/>
+      <c r="K13" s="140"/>
     </row>
     <row r="14" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110">
         <v>4</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="139">
+        <v>61</v>
+      </c>
+      <c r="C14" s="133">
         <f>A14*D14/$D$21</f>
         <v>1.5993983855612535E-2</v>
       </c>
       <c r="D14" s="121">
         <v>24.99</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="133">
         <f t="shared" si="1"/>
         <v>2.0636007390154028E-2</v>
       </c>
       <c r="F14" s="132">
         <v>29.99</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="133">
         <f t="shared" si="2"/>
         <v>2.9877772747849706E-2</v>
       </c>
       <c r="H14" s="132">
         <v>0.99</v>
       </c>
-      <c r="K14" s="146"/>
+      <c r="K14" s="140"/>
     </row>
     <row r="15" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="110">
         <v>1</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="139">
+        <v>62</v>
+      </c>
+      <c r="C15" s="133">
         <f t="shared" ref="C15:C20" si="3">A15*D15/$D$21</f>
         <v>1.9520468491243791E-2</v>
       </c>
       <c r="D15" s="121">
         <v>122</v>
       </c>
-      <c r="E15" s="139">
+      <c r="E15" s="133">
         <f t="shared" si="1"/>
         <v>2.5801890200476851E-2</v>
       </c>
       <c r="F15" s="132">
         <v>149.99</v>
       </c>
-      <c r="G15" s="139">
+      <c r="G15" s="133">
         <f t="shared" si="2"/>
         <v>3.3952014486192852E-2</v>
       </c>
       <c r="H15" s="132">
         <v>4.5</v>
       </c>
-      <c r="K15" s="146"/>
+      <c r="K15" s="140"/>
     </row>
     <row r="16" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>2</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="139">
+        <v>63</v>
+      </c>
+      <c r="C16" s="133">
         <f t="shared" si="3"/>
         <v>0.20768498443962657</v>
       </c>
       <c r="D16" s="121">
         <v>649</v>
       </c>
-      <c r="E16" s="139">
+      <c r="E16" s="133">
         <f t="shared" si="1"/>
         <v>0.17168002146860387</v>
       </c>
       <c r="F16" s="132">
         <v>499</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="133">
         <f t="shared" si="2"/>
         <v>0.12071827372868568</v>
       </c>
       <c r="H16" s="132">
         <v>8</v>
       </c>
-      <c r="K16" s="146"/>
+      <c r="K16" s="140"/>
     </row>
     <row r="17" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="110">
         <v>2</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="139">
+        <v>64</v>
+      </c>
+      <c r="C17" s="133">
         <f t="shared" si="3"/>
         <v>0.22363736729681516</v>
       </c>
@@ -1929,7 +1929,7 @@
         <f>159.9+538.95</f>
         <v>698.85</v>
       </c>
-      <c r="E17" s="139">
+      <c r="E17" s="133">
         <f t="shared" si="1"/>
         <v>0.27243107855651161</v>
       </c>
@@ -1937,53 +1937,53 @@
         <f>621.85+169.99</f>
         <v>791.84</v>
       </c>
-      <c r="G17" s="139">
+      <c r="G17" s="133">
         <f t="shared" si="2"/>
         <v>0.15089784216085711</v>
       </c>
       <c r="H17" s="132">
         <v>10</v>
       </c>
-      <c r="K17" s="146"/>
+      <c r="K17" s="140"/>
     </row>
     <row r="18" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="110">
         <v>1</v>
       </c>
       <c r="B18" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="139">
+        <v>65</v>
+      </c>
+      <c r="C18" s="133">
         <f t="shared" si="3"/>
         <v>1.7598822371736923E-2</v>
       </c>
       <c r="D18" s="121">
         <v>109.99</v>
       </c>
-      <c r="E18" s="139">
+      <c r="E18" s="133">
         <f t="shared" si="1"/>
         <v>2.2344206401359673E-2</v>
       </c>
       <c r="F18" s="132">
         <v>129.88999999999999</v>
       </c>
-      <c r="G18" s="139">
+      <c r="G18" s="133">
         <f t="shared" si="2"/>
         <v>2.8595141089482422E-2</v>
       </c>
       <c r="H18" s="132">
         <v>3.79</v>
       </c>
-      <c r="K18" s="146"/>
+      <c r="K18" s="140"/>
     </row>
     <row r="19" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="110">
         <v>4</v>
       </c>
       <c r="B19" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="139">
+        <v>67</v>
+      </c>
+      <c r="C19" s="133">
         <f t="shared" si="3"/>
         <v>9.8146355512532299E-2</v>
       </c>
@@ -1991,7 +1991,7 @@
         <f>126.36+26.99</f>
         <v>153.35</v>
       </c>
-      <c r="E19" s="139">
+      <c r="E19" s="133">
         <f t="shared" si="1"/>
         <v>8.5936344213282334E-2</v>
       </c>
@@ -1999,23 +1999,23 @@
         <f>55.99+68.9</f>
         <v>124.89000000000001</v>
       </c>
-      <c r="G19" s="139">
+      <c r="G19" s="133">
         <f t="shared" si="2"/>
         <v>6.005734118002113E-2</v>
       </c>
       <c r="H19" s="132">
         <v>1.99</v>
       </c>
-      <c r="K19" s="146"/>
+      <c r="K19" s="140"/>
     </row>
     <row r="20" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="110">
         <v>10</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="139">
+        <v>66</v>
+      </c>
+      <c r="C20" s="133">
         <f t="shared" si="3"/>
         <v>0.11357072569741676</v>
       </c>
@@ -2023,62 +2023,62 @@
         <f>15.99+54.99</f>
         <v>70.98</v>
       </c>
-      <c r="E20" s="139">
+      <c r="E20" s="133">
         <f t="shared" si="1"/>
         <v>0.11867940562243467</v>
       </c>
       <c r="F20" s="121">
         <v>68.989999999999995</v>
       </c>
-      <c r="G20" s="139">
+      <c r="G20" s="133">
         <f t="shared" si="2"/>
         <v>0.37724460540214277</v>
       </c>
       <c r="H20" s="121">
         <v>5</v>
       </c>
-      <c r="K20" s="146"/>
+      <c r="K20" s="140"/>
     </row>
     <row r="21" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="140"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="121">
         <f>SUM($A$11*D11+$A$12*D12+$A$13*D13+$A$14*D14+$A$15*D15+$A$16*D16+$A$17*D17+$A$18*D18+$A$19*D19+$A$20*D20)</f>
         <v>6249.8499999999995</v>
       </c>
-      <c r="E21" s="142"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="121">
         <f t="shared" ref="F21" si="4">SUM($A$11*F11+$A$12*F12+$A$13*F13+$A$14*F14+$A$15*F15+$A$16*F16+$A$17*F17+$A$18*F18+$A$19*F19+$A$20*F20)</f>
         <v>5813.14</v>
       </c>
-      <c r="G21" s="142"/>
+      <c r="G21" s="136"/>
       <c r="H21" s="121">
         <f>SUM($A$11*H11+$A$12*H12+$A$13*H13+$A$14*H14+$A$15*H15+$A$16*H16+$A$17*H17+$A$18*H18+$A$19*H19+$A$20*H20)</f>
         <v>132.54</v>
       </c>
-      <c r="K21" s="146"/>
+      <c r="K21" s="140"/>
     </row>
     <row r="22" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
       <c r="B22" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="141">
+      <c r="C22" s="135">
         <v>0.1</v>
       </c>
       <c r="D22" s="131">
         <f>$C$22*D21</f>
         <v>624.98500000000001</v>
       </c>
-      <c r="E22" s="143"/>
+      <c r="E22" s="137"/>
       <c r="F22" s="131">
         <f t="shared" ref="F22:H22" si="5">$C$22*F21</f>
         <v>581.31400000000008</v>
       </c>
-      <c r="G22" s="143"/>
+      <c r="G22" s="137"/>
       <c r="H22" s="131">
         <f t="shared" si="5"/>
         <v>13.254</v>
@@ -2112,29 +2112,29 @@
       <c r="B25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="137" t="str">
+      <c r="C25" s="143" t="str">
         <f>C32</f>
         <v>Kauf a)</v>
       </c>
-      <c r="D25" s="138"/>
-      <c r="E25" s="137" t="s">
+      <c r="D25" s="144"/>
+      <c r="E25" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="138"/>
-      <c r="G25" s="137" t="s">
+      <c r="F25" s="144"/>
+      <c r="G25" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="138"/>
+      <c r="H25" s="144"/>
     </row>
     <row r="26" spans="1:11" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116"/>
       <c r="B26" s="117"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="136"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="1:11" s="115" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="118">
@@ -2165,9 +2165,9 @@
         <v>1</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="139">
+        <v>71</v>
+      </c>
+      <c r="C28" s="133">
         <f>$A28*D28/D$29</f>
         <v>0.2</v>
       </c>
@@ -2175,7 +2175,7 @@
         <f>100*12</f>
         <v>1200</v>
       </c>
-      <c r="E28" s="139">
+      <c r="E28" s="133">
         <f>$A28*F28/F$29</f>
         <v>0.2</v>
       </c>
@@ -2183,7 +2183,7 @@
         <f>100*12</f>
         <v>1200</v>
       </c>
-      <c r="G28" s="139">
+      <c r="G28" s="133">
         <f>$A28*H28/H$29</f>
         <v>0.2</v>
       </c>
@@ -2238,33 +2238,33 @@
         <v>31</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="137" t="str">
+        <v>72</v>
+      </c>
+      <c r="C32" s="143" t="str">
         <f>C8</f>
         <v>Kauf a)</v>
       </c>
-      <c r="D32" s="138"/>
-      <c r="E32" s="137" t="str">
+      <c r="D32" s="144"/>
+      <c r="E32" s="143" t="str">
         <f>E8</f>
         <v>Kauf B)</v>
       </c>
-      <c r="F32" s="138"/>
-      <c r="G32" s="137" t="str">
+      <c r="F32" s="144"/>
+      <c r="G32" s="143" t="str">
         <f>G8</f>
         <v>Miete a)</v>
       </c>
-      <c r="H32" s="138"/>
+      <c r="H32" s="144"/>
     </row>
     <row r="33" spans="1:11" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
       <c r="B33" s="117"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="136"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
     </row>
     <row r="34" spans="1:11" s="115" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="118">
@@ -2297,23 +2297,23 @@
         <v>4</v>
       </c>
       <c r="B35" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="139">
+        <v>73</v>
+      </c>
+      <c r="C35" s="133">
         <f>$A35*D35/D$37</f>
         <v>0.60865139949109415</v>
       </c>
       <c r="D35" s="121">
         <v>299</v>
       </c>
-      <c r="E35" s="139">
+      <c r="E35" s="133">
         <f>$A35*F35/F$37</f>
         <v>0.60865139949109415</v>
       </c>
       <c r="F35" s="121">
         <v>299</v>
       </c>
-      <c r="G35" s="139">
+      <c r="G35" s="133">
         <f>$A35*H35/H$37</f>
         <v>0.53373768006065203</v>
       </c>
@@ -2326,9 +2326,9 @@
         <v>1</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="139">
+        <v>74</v>
+      </c>
+      <c r="C36" s="133">
         <f>$A36*D36/D$37</f>
         <v>0.39134860050890585</v>
       </c>
@@ -2336,7 +2336,7 @@
         <f>769</f>
         <v>769</v>
       </c>
-      <c r="E36" s="139">
+      <c r="E36" s="133">
         <f>$A36*F36/F$37</f>
         <v>0.39134860050890585</v>
       </c>
@@ -2344,7 +2344,7 @@
         <f>769</f>
         <v>769</v>
       </c>
-      <c r="G36" s="139">
+      <c r="G36" s="133">
         <f>$A36*H36/H$37</f>
         <v>0.46626231993934797</v>
       </c>
@@ -2358,41 +2358,41 @@
       <c r="B37" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="140"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="121">
         <f>D35*$A35+D36*$A36</f>
         <v>1965</v>
       </c>
-      <c r="E37" s="142"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="121">
         <f>F35*$A35+F36*$A36</f>
         <v>1965</v>
       </c>
-      <c r="G37" s="142"/>
+      <c r="G37" s="136"/>
       <c r="H37" s="121">
         <f>H35*$A35+H36*$A36</f>
         <v>65.95</v>
       </c>
-      <c r="K37" s="146"/>
+      <c r="K37" s="140"/>
     </row>
     <row r="38" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="110"/>
       <c r="B38" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="141">
+      <c r="C38" s="135">
         <v>0.1</v>
       </c>
       <c r="D38" s="131">
         <f>D37*$C38</f>
         <v>196.5</v>
       </c>
-      <c r="E38" s="143"/>
+      <c r="E38" s="137"/>
       <c r="F38" s="131">
         <f>F37*$E38</f>
         <v>0</v>
       </c>
-      <c r="G38" s="143"/>
+      <c r="G38" s="137"/>
       <c r="H38" s="131">
         <f>H37*$G38</f>
         <v>0</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="144"/>
+      <c r="E42" s="138"/>
     </row>
     <row r="43" spans="1:11" s="127" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="125"/>
@@ -2431,12 +2431,12 @@
         <f>D$21-D$22+D$29+D$37-D$38</f>
         <v>13393.365</v>
       </c>
-      <c r="E43" s="145"/>
+      <c r="E43" s="139"/>
       <c r="F43" s="129">
         <f>F$21-F$22+F$29+F$37-F$38</f>
         <v>13196.826000000001</v>
       </c>
-      <c r="G43" s="145"/>
+      <c r="G43" s="139"/>
       <c r="H43" s="129">
         <f>H44*G7</f>
         <v>17114.16</v>
@@ -2694,6 +2694,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
@@ -2710,9 +2713,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -2727,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2751,7 +2751,7 @@
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="str">
         <f>'Tabelle 1 HW'!B2</f>
-        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</v>
+        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42 //Switch fehlt (Danke Bene)</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2862,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="79"/>
@@ -2877,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="79"/>
@@ -3025,7 +3025,7 @@
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="str">
         <f>'Tabelle 1 HW'!B2</f>
-        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</v>
+        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42 //Switch fehlt (Danke Bene)</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -3426,7 +3426,7 @@
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="96"/>
       <c r="E38" s="95">
@@ -3448,7 +3448,7 @@
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="83"/>
       <c r="D40" s="96">
@@ -3472,7 +3472,7 @@
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="96">
         <f>D38*100/(100-$C40)</f>

--- a/Haushüter_App-Kalk Gruppe 42.xlsx
+++ b/Haushüter_App-Kalk Gruppe 42.xlsx
@@ -10,8 +10,6 @@
     <sheet name="Tabelle 1 HW" sheetId="3" r:id="rId1"/>
     <sheet name="Tabelle2 DL" sheetId="5" r:id="rId2"/>
     <sheet name="Tabelle 3 Gesamt - Verkauf" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle4 Angbot (Word)" sheetId="2" r:id="rId4"/>
-    <sheet name="Tabelle5" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>Kalkulation</t>
   </si>
@@ -143,12 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Miete (Ang.a))</t>
-  </si>
-  <si>
-    <t>Miete (Ang.b))</t>
   </si>
   <si>
     <t>Projekt DienstPlan-App</t>
@@ -228,9 +220,6 @@
     </r>
   </si>
   <si>
-    <t>besser als Text / Word-Dokument</t>
-  </si>
-  <si>
     <t>Summe:</t>
   </si>
   <si>
@@ -321,13 +310,25 @@
     <t>Selbstkosten</t>
   </si>
   <si>
-    <t>Aufbau</t>
-  </si>
-  <si>
-    <t>Entwicklung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Gruppe: ISCH Mir EGAL 42 //Switch fehlt (Danke Bene)</t>
+    <t>Schulung</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Abschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Kauf (Ang.a))</t>
+  </si>
+  <si>
+    <t>Kauf (Ang.b))</t>
   </si>
 </sst>
 </file>
@@ -339,7 +340,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,13 +477,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
@@ -1033,14 +1027,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,9 +1069,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1091,9 +1079,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1109,9 +1094,6 @@
     <xf numFmtId="4" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1121,9 +1103,6 @@
     <xf numFmtId="4" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1133,28 +1112,25 @@
     <xf numFmtId="4" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1164,103 +1140,103 @@
     <xf numFmtId="4" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="34" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1269,11 +1245,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1561,10 +1555,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,14 +1591,14 @@
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="18"/>
-      <c r="B2" s="145" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,7 +1613,7 @@
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
@@ -1632,7 +1626,7 @@
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24"/>
@@ -1642,7 +1636,7 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="102" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="22"/>
@@ -1660,7 +1654,7 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="94">
         <v>5</v>
       </c>
       <c r="F7" s="41" t="s">
@@ -1674,798 +1668,827 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="115" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+    <row r="8" spans="1:11" s="109" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="138"/>
+      <c r="G8" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="138"/>
+    </row>
+    <row r="9" spans="1:11" s="109" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="E9" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="136"/>
+      <c r="G9" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="136"/>
+    </row>
+    <row r="10" spans="1:11" s="109" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="112"/>
+      <c r="B10" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="104">
+        <v>1</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="127">
+        <f>A11*D11/$D$22</f>
+        <v>0.12064289542949032</v>
+      </c>
+      <c r="D11" s="115">
+        <v>754</v>
+      </c>
+      <c r="E11" s="127">
+        <f>A11*F11/$F$22</f>
+        <v>0.10666530771936862</v>
+      </c>
+      <c r="F11" s="115">
+        <v>648.86</v>
+      </c>
+      <c r="G11" s="127">
+        <f>A11*H11/$H$22</f>
+        <v>7.0580754557015693E-2</v>
+      </c>
+      <c r="H11" s="126">
+        <v>9.99</v>
+      </c>
+      <c r="K11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="104">
+        <v>1</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="127">
+        <f>A12*D12/$D$22</f>
+        <v>3.2000768018432442E-2</v>
+      </c>
+      <c r="D12" s="115">
+        <v>200</v>
+      </c>
+      <c r="E12" s="127">
+        <f>A12*F12/$F$22</f>
+        <v>3.6149094053400055E-2</v>
+      </c>
+      <c r="F12" s="126">
+        <v>219.9</v>
+      </c>
+      <c r="G12" s="127">
+        <f>A12*H12/$H$22</f>
+        <v>3.5325702981489335E-2</v>
+      </c>
+      <c r="H12" s="126">
+        <v>5</v>
+      </c>
+      <c r="K12" s="134"/>
+    </row>
+    <row r="13" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="104">
+        <v>6</v>
+      </c>
+      <c r="B13" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="144"/>
-      <c r="G8" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="144"/>
-    </row>
-    <row r="9" spans="1:11" s="115" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="141" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="142"/>
-      <c r="G9" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="142"/>
-    </row>
-    <row r="10" spans="1:11" s="115" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118"/>
-      <c r="B10" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="120" t="s">
+      <c r="C13" s="127">
+        <f>A13*D13/$D$22</f>
+        <v>0.15120362888709329</v>
+      </c>
+      <c r="D13" s="115">
+        <v>157.5</v>
+      </c>
+      <c r="E13" s="127">
+        <f>A13*F13/$F$22</f>
+        <v>0.14686494146115331</v>
+      </c>
+      <c r="F13" s="115">
+        <v>148.9</v>
+      </c>
+      <c r="G13" s="127">
+        <f>A13*H13/$H$22</f>
+        <v>8.0118694362017809E-2</v>
+      </c>
+      <c r="H13" s="126">
+        <v>1.89</v>
+      </c>
+      <c r="K13" s="134"/>
+    </row>
+    <row r="14" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="104">
+        <v>4</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="127">
+        <f>A14*D14/$D$22</f>
+        <v>1.5993983855612535E-2</v>
+      </c>
+      <c r="D14" s="115">
+        <v>24.99</v>
+      </c>
+      <c r="E14" s="127">
+        <f>A14*F14/$F$22</f>
+        <v>2.62956302172891E-2</v>
+      </c>
+      <c r="F14" s="126">
+        <v>39.99</v>
+      </c>
+      <c r="G14" s="127">
+        <f>A14*H14/$H$22</f>
+        <v>2.7977956761339552E-2</v>
+      </c>
+      <c r="H14" s="126">
+        <v>0.99</v>
+      </c>
+      <c r="K14" s="134"/>
+    </row>
+    <row r="15" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="104">
         <v>1</v>
       </c>
-      <c r="E10" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110">
-        <v>1</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="133">
-        <f>A11*D11/$D$21</f>
-        <v>0.12064289542949032</v>
-      </c>
-      <c r="D11" s="121">
-        <v>754</v>
-      </c>
-      <c r="E11" s="133">
-        <f>A11*F11/$F$21</f>
-        <v>0.11161953780572978</v>
-      </c>
-      <c r="F11" s="121">
-        <v>648.86</v>
-      </c>
-      <c r="G11" s="133">
-        <f>A11*H11/$H$21</f>
-        <v>7.5373472159348129E-2</v>
-      </c>
-      <c r="H11" s="132">
-        <v>9.99</v>
-      </c>
-      <c r="K11" s="140"/>
-    </row>
-    <row r="12" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110">
-        <v>1</v>
-      </c>
-      <c r="B12" s="111" t="s">
+      <c r="B15" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="133">
-        <f t="shared" ref="C12:C13" si="0">A12*D12/$D$21</f>
-        <v>3.2000768018432442E-2</v>
-      </c>
-      <c r="D12" s="121">
-        <v>200</v>
-      </c>
-      <c r="E12" s="133">
-        <f t="shared" ref="E12:E20" si="1">A12*F12/$F$21</f>
-        <v>3.7828092906759515E-2</v>
-      </c>
-      <c r="F12" s="132">
-        <v>219.9</v>
-      </c>
-      <c r="G12" s="133">
-        <f t="shared" ref="G12:G20" si="2">A12*H12/$H$21</f>
-        <v>3.7724460540214277E-2</v>
-      </c>
-      <c r="H12" s="132">
-        <v>5</v>
-      </c>
-      <c r="K12" s="140"/>
-    </row>
-    <row r="13" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110">
-        <v>6</v>
-      </c>
-      <c r="B13" s="111" t="s">
+      <c r="C15" s="127">
+        <f>A15*D15/$D$22</f>
+        <v>1.9520468491243791E-2</v>
+      </c>
+      <c r="D15" s="115">
+        <v>122</v>
+      </c>
+      <c r="E15" s="127">
+        <f>A15*F15/$F$22</f>
+        <v>2.4656674020325033E-2</v>
+      </c>
+      <c r="F15" s="126">
+        <v>149.99</v>
+      </c>
+      <c r="G15" s="127">
+        <f>A15*H15/$H$22</f>
+        <v>3.17931326833404E-2</v>
+      </c>
+      <c r="H15" s="126">
+        <v>4.5</v>
+      </c>
+      <c r="K15" s="134"/>
+    </row>
+    <row r="16" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="104">
+        <v>2</v>
+      </c>
+      <c r="B16" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="133">
-        <f t="shared" si="0"/>
-        <v>0.15120362888709329</v>
-      </c>
-      <c r="D13" s="121">
-        <v>157.5</v>
-      </c>
-      <c r="E13" s="133">
-        <f t="shared" si="1"/>
-        <v>0.13304341543468762</v>
-      </c>
-      <c r="F13" s="121">
-        <v>128.9</v>
-      </c>
-      <c r="G13" s="133">
-        <f t="shared" si="2"/>
-        <v>8.5559076505205986E-2</v>
-      </c>
-      <c r="H13" s="132">
-        <v>1.89</v>
-      </c>
-      <c r="K13" s="140"/>
-    </row>
-    <row r="14" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110">
-        <v>4</v>
-      </c>
-      <c r="B14" s="111" t="s">
+      <c r="C16" s="127">
+        <f>A16*D16/$D$22</f>
+        <v>0.20768498443962657</v>
+      </c>
+      <c r="D16" s="115">
+        <v>649</v>
+      </c>
+      <c r="E16" s="127">
+        <f>A16*F16/$F$22</f>
+        <v>0.16406000848246138</v>
+      </c>
+      <c r="F16" s="126">
+        <v>499</v>
+      </c>
+      <c r="G16" s="127">
+        <f>A16*H16/$H$22</f>
+        <v>0.11304224954076587</v>
+      </c>
+      <c r="H16" s="126">
+        <v>8</v>
+      </c>
+      <c r="K16" s="134"/>
+    </row>
+    <row r="17" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="104">
+        <v>2</v>
+      </c>
+      <c r="B17" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="133">
-        <f>A14*D14/$D$21</f>
-        <v>1.5993983855612535E-2</v>
-      </c>
-      <c r="D14" s="121">
-        <v>24.99</v>
-      </c>
-      <c r="E14" s="133">
-        <f t="shared" si="1"/>
-        <v>2.0636007390154028E-2</v>
-      </c>
-      <c r="F14" s="132">
-        <v>29.99</v>
-      </c>
-      <c r="G14" s="133">
-        <f t="shared" si="2"/>
-        <v>2.9877772747849706E-2</v>
-      </c>
-      <c r="H14" s="132">
-        <v>0.99</v>
-      </c>
-      <c r="K14" s="140"/>
-    </row>
-    <row r="15" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110">
-        <v>1</v>
-      </c>
-      <c r="B15" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="133">
-        <f t="shared" ref="C15:C20" si="3">A15*D15/$D$21</f>
-        <v>1.9520468491243791E-2</v>
-      </c>
-      <c r="D15" s="121">
-        <v>122</v>
-      </c>
-      <c r="E15" s="133">
-        <f t="shared" si="1"/>
-        <v>2.5801890200476851E-2</v>
-      </c>
-      <c r="F15" s="132">
-        <v>149.99</v>
-      </c>
-      <c r="G15" s="133">
-        <f t="shared" si="2"/>
-        <v>3.3952014486192852E-2</v>
-      </c>
-      <c r="H15" s="132">
-        <v>4.5</v>
-      </c>
-      <c r="K15" s="140"/>
-    </row>
-    <row r="16" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110">
-        <v>2</v>
-      </c>
-      <c r="B16" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="133">
-        <f t="shared" si="3"/>
-        <v>0.20768498443962657</v>
-      </c>
-      <c r="D16" s="121">
-        <v>649</v>
-      </c>
-      <c r="E16" s="133">
-        <f t="shared" si="1"/>
-        <v>0.17168002146860387</v>
-      </c>
-      <c r="F16" s="132">
-        <v>499</v>
-      </c>
-      <c r="G16" s="133">
-        <f t="shared" si="2"/>
-        <v>0.12071827372868568</v>
-      </c>
-      <c r="H16" s="132">
-        <v>8</v>
-      </c>
-      <c r="K16" s="140"/>
-    </row>
-    <row r="17" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110">
-        <v>2</v>
-      </c>
-      <c r="B17" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="133">
-        <f t="shared" si="3"/>
+      <c r="C17" s="127">
+        <f>A17*D17/$D$22</f>
         <v>0.22363736729681516</v>
       </c>
-      <c r="D17" s="121">
+      <c r="D17" s="115">
         <f>159.9+538.95</f>
         <v>698.85</v>
       </c>
-      <c r="E17" s="133">
-        <f t="shared" si="1"/>
-        <v>0.27243107855651161</v>
-      </c>
-      <c r="F17" s="132">
+      <c r="E17" s="127">
+        <f>A17*F17/$F$22</f>
+        <v>0.26033923269890225</v>
+      </c>
+      <c r="F17" s="126">
         <f>621.85+169.99</f>
         <v>791.84</v>
       </c>
-      <c r="G17" s="133">
-        <f t="shared" si="2"/>
-        <v>0.15089784216085711</v>
-      </c>
-      <c r="H17" s="132">
+      <c r="G17" s="127">
+        <f>A17*H17/$H$22</f>
+        <v>0.14130281192595734</v>
+      </c>
+      <c r="H17" s="126">
         <v>10</v>
       </c>
-      <c r="K17" s="140"/>
-    </row>
-    <row r="18" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="110">
+      <c r="K17" s="134"/>
+    </row>
+    <row r="18" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="104">
         <v>1</v>
       </c>
-      <c r="B18" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="133">
-        <f t="shared" si="3"/>
+      <c r="B18" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="127">
+        <f>A18*D18/$D$22</f>
         <v>1.7598822371736923E-2</v>
       </c>
-      <c r="D18" s="121">
+      <c r="D18" s="115">
         <v>109.99</v>
       </c>
-      <c r="E18" s="133">
-        <f t="shared" si="1"/>
-        <v>2.2344206401359673E-2</v>
-      </c>
-      <c r="F18" s="132">
+      <c r="E18" s="127">
+        <f>A18*F18/$F$22</f>
+        <v>2.1352459420628161E-2</v>
+      </c>
+      <c r="F18" s="126">
         <v>129.88999999999999</v>
       </c>
-      <c r="G18" s="133">
-        <f t="shared" si="2"/>
-        <v>2.8595141089482422E-2</v>
-      </c>
-      <c r="H18" s="132">
+      <c r="G18" s="127">
+        <f>A18*H18/$H$22</f>
+        <v>2.6776882859968914E-2</v>
+      </c>
+      <c r="H18" s="126">
         <v>3.79</v>
       </c>
-      <c r="K18" s="140"/>
-    </row>
-    <row r="19" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110">
+      <c r="K18" s="134"/>
+    </row>
+    <row r="19" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="104">
         <v>4</v>
       </c>
-      <c r="B19" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="133">
-        <f t="shared" si="3"/>
+      <c r="B19" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="127">
+        <f>A19*D19/$D$22</f>
         <v>9.8146355512532299E-2</v>
       </c>
-      <c r="D19" s="121">
+      <c r="D19" s="115">
         <f>126.36+26.99</f>
         <v>153.35</v>
       </c>
-      <c r="E19" s="133">
-        <f t="shared" si="1"/>
-        <v>8.5936344213282334E-2</v>
-      </c>
-      <c r="F19" s="132">
-        <f>55.99+68.9</f>
-        <v>124.89000000000001</v>
-      </c>
-      <c r="G19" s="133">
-        <f t="shared" si="2"/>
-        <v>6.005734118002113E-2</v>
-      </c>
-      <c r="H19" s="132">
+      <c r="E19" s="127">
+        <f>A19*F19/$F$22</f>
+        <v>8.8697613403604061E-2</v>
+      </c>
+      <c r="F19" s="126">
+        <f>65.99+68.9</f>
+        <v>134.88999999999999</v>
+      </c>
+      <c r="G19" s="127">
+        <f>A19*H19/$H$22</f>
+        <v>5.6238519146531017E-2</v>
+      </c>
+      <c r="H19" s="126">
         <v>1.99</v>
       </c>
-      <c r="K19" s="140"/>
-    </row>
-    <row r="20" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="110">
+      <c r="K19" s="134"/>
+    </row>
+    <row r="20" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="104">
         <v>10</v>
       </c>
-      <c r="B20" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="133">
-        <f t="shared" si="3"/>
+      <c r="B20" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="127">
+        <f>A20*D20/$D$22</f>
         <v>0.11357072569741676</v>
       </c>
-      <c r="D20" s="121">
+      <c r="D20" s="115">
         <f>15.99+54.99</f>
         <v>70.98</v>
       </c>
-      <c r="E20" s="133">
-        <f t="shared" si="1"/>
-        <v>0.11867940562243467</v>
-      </c>
-      <c r="F20" s="121">
-        <v>68.989999999999995</v>
-      </c>
-      <c r="G20" s="133">
-        <f t="shared" si="2"/>
-        <v>0.37724460540214277</v>
-      </c>
-      <c r="H20" s="121">
-        <v>5</v>
-      </c>
-      <c r="K20" s="140"/>
-    </row>
-    <row r="21" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="121">
+      <c r="E20" s="127">
+        <f>A20*F20/$F$22</f>
+        <v>0.12491903852286813</v>
+      </c>
+      <c r="F20" s="115">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="G20" s="127">
+        <f>A20*H20/$H$22</f>
+        <v>0.41684329518157415</v>
+      </c>
+      <c r="H20" s="115">
+        <v>5.9</v>
+      </c>
+      <c r="K20" s="134"/>
+    </row>
+    <row r="21" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="104">
+        <v>1</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="127">
+        <f>A21*D21/$D$22</f>
+        <v>3.3847212333095997E-2</v>
+      </c>
+      <c r="D21" s="115">
+        <v>211.54</v>
+      </c>
+      <c r="E21" s="127">
+        <f>A21*F21/$F$22</f>
+        <v>3.583511147203583E-2</v>
+      </c>
+      <c r="F21" s="115">
+        <v>217.99</v>
+      </c>
+      <c r="G21" s="127">
+        <f>A21*H21/$H$22</f>
+        <v>4.9455984174085067E-2</v>
+      </c>
+      <c r="H21" s="115">
+        <v>7</v>
+      </c>
+      <c r="K21" s="134"/>
+    </row>
+    <row r="22" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="104"/>
+      <c r="B22" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="128"/>
+      <c r="D22" s="115">
         <f>SUM($A$11*D11+$A$12*D12+$A$13*D13+$A$14*D14+$A$15*D15+$A$16*D16+$A$17*D17+$A$18*D18+$A$19*D19+$A$20*D20)</f>
         <v>6249.8499999999995</v>
       </c>
-      <c r="E21" s="136"/>
-      <c r="F21" s="121">
-        <f t="shared" ref="F21" si="4">SUM($A$11*F11+$A$12*F12+$A$13*F13+$A$14*F14+$A$15*F15+$A$16*F16+$A$17*F17+$A$18*F18+$A$19*F19+$A$20*F20)</f>
-        <v>5813.14</v>
-      </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="121">
+      <c r="E22" s="130"/>
+      <c r="F22" s="115">
+        <f t="shared" ref="F22" si="0">SUM($A$11*F11+$A$12*F12+$A$13*F13+$A$14*F14+$A$15*F15+$A$16*F16+$A$17*F17+$A$18*F18+$A$19*F19+$A$20*F20)</f>
+        <v>6083.1399999999994</v>
+      </c>
+      <c r="G22" s="130"/>
+      <c r="H22" s="115">
         <f>SUM($A$11*H11+$A$12*H12+$A$13*H13+$A$14*H14+$A$15*H15+$A$16*H16+$A$17*H17+$A$18*H18+$A$19*H19+$A$20*H20)</f>
-        <v>132.54</v>
-      </c>
-      <c r="K21" s="140"/>
-    </row>
-    <row r="22" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="110"/>
-      <c r="B22" s="111" t="s">
+        <v>141.54</v>
+      </c>
+      <c r="K22" s="134"/>
+    </row>
+    <row r="23" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="104"/>
+      <c r="B23" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="135">
+      <c r="C23" s="129">
         <v>0.1</v>
       </c>
-      <c r="D22" s="131">
-        <f>$C$22*D21</f>
+      <c r="D23" s="125">
+        <f>$C$23*D22</f>
         <v>624.98500000000001</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="131">
-        <f t="shared" ref="F22:H22" si="5">$C$22*F21</f>
-        <v>581.31400000000008</v>
-      </c>
-      <c r="G22" s="137"/>
-      <c r="H22" s="131">
-        <f t="shared" si="5"/>
-        <v>13.254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="66"/>
-    </row>
-    <row r="24" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:11" s="115" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="114" t="s">
+      <c r="E23" s="131"/>
+      <c r="F23" s="125">
+        <f>$E$23*F22</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="131"/>
+      <c r="H23" s="125">
+        <f>$G$23*H22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="1:11" s="109" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="143" t="str">
-        <f>C32</f>
+      <c r="C26" s="137" t="str">
+        <f>C33</f>
         <v>Kauf a)</v>
       </c>
-      <c r="D25" s="144"/>
-      <c r="E25" s="143" t="s">
+      <c r="D26" s="138"/>
+      <c r="E26" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="144"/>
-      <c r="G25" s="143" t="s">
+      <c r="F26" s="138"/>
+      <c r="G26" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="144"/>
-    </row>
-    <row r="26" spans="1:11" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="142"/>
-    </row>
-    <row r="27" spans="1:11" s="115" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="118">
+      <c r="H26" s="138"/>
+    </row>
+    <row r="27" spans="1:11" s="109" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
+    </row>
+    <row r="28" spans="1:11" s="109" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="112">
         <v>1</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="118" t="s">
+      <c r="B28" s="113"/>
+      <c r="C28" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D28" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="118" t="s">
+      <c r="E28" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="120" t="s">
+      <c r="F28" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="118" t="s">
+      <c r="G28" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="120" t="s">
+      <c r="H28" s="114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="112" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110">
+    <row r="29" spans="1:11" s="106" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="104">
         <v>1</v>
       </c>
-      <c r="B28" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="133">
-        <f>$A28*D28/D$29</f>
+      <c r="B29" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="127">
+        <f>$A29*D29/D$30</f>
         <v>0.2</v>
       </c>
-      <c r="D28" s="121">
+      <c r="D29" s="115">
         <f>100*12</f>
         <v>1200</v>
       </c>
-      <c r="E28" s="133">
-        <f>$A28*F28/F$29</f>
+      <c r="E29" s="127">
+        <f>$A29*F29/F$30</f>
         <v>0.2</v>
       </c>
-      <c r="F28" s="121">
+      <c r="F29" s="115">
         <f>100*12</f>
         <v>1200</v>
       </c>
-      <c r="G28" s="133">
-        <f>$A28*H28/H$29</f>
+      <c r="G29" s="127">
+        <f>$A29*H29/H$30</f>
         <v>0.2</v>
       </c>
-      <c r="H28" s="121">
+      <c r="H29" s="115">
         <f>100*12</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="112" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110"/>
-      <c r="B29" s="111" t="s">
+    <row r="30" spans="1:11" s="106" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="104"/>
+      <c r="B30" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="122">
-        <f>D28*$E$7</f>
+      <c r="C30" s="107"/>
+      <c r="D30" s="116">
+        <f>D29*$E$7</f>
         <v>6000</v>
       </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122">
-        <f>F28*$E$7</f>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116">
+        <f>F29*$E$7</f>
         <v>6000</v>
       </c>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122">
-        <f>H28*$E$7</f>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116">
+        <f>H29*$E$7</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="124"/>
-    </row>
-    <row r="31" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="124"/>
-    </row>
-    <row r="32" spans="1:11" s="115" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="114" t="s">
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="118"/>
+    </row>
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="118"/>
+    </row>
+    <row r="33" spans="1:11" s="109" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="143" t="str">
+      <c r="B33" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="137" t="str">
         <f>C8</f>
         <v>Kauf a)</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="143" t="str">
+      <c r="D33" s="138"/>
+      <c r="E33" s="137" t="str">
         <f>E8</f>
         <v>Kauf B)</v>
       </c>
-      <c r="F32" s="144"/>
-      <c r="G32" s="143" t="str">
+      <c r="F33" s="138"/>
+      <c r="G33" s="137" t="str">
         <f>G8</f>
         <v>Miete a)</v>
       </c>
-      <c r="H32" s="144"/>
-    </row>
-    <row r="33" spans="1:11" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142"/>
-    </row>
-    <row r="34" spans="1:11" s="115" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="118">
+      <c r="H33" s="138"/>
+    </row>
+    <row r="34" spans="1:11" s="109" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="110"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="136"/>
+    </row>
+    <row r="35" spans="1:11" s="109" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="112">
         <v>1</v>
       </c>
-      <c r="B34" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="118" t="s">
+      <c r="B35" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D35" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="118" t="s">
+      <c r="E35" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="120" t="s">
+      <c r="F35" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="118" t="s">
+      <c r="G35" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="120" t="s">
+      <c r="H35" s="114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110">
+    <row r="36" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="104">
         <v>4</v>
       </c>
-      <c r="B35" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="133">
-        <f>$A35*D35/D$37</f>
+      <c r="B36" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="127">
+        <f>$A36*D36/D$38</f>
         <v>0.60865139949109415</v>
       </c>
-      <c r="D35" s="121">
+      <c r="D36" s="115">
         <v>299</v>
       </c>
-      <c r="E35" s="133">
-        <f>$A35*F35/F$37</f>
+      <c r="E36" s="127">
+        <f>$A36*F36/F$38</f>
         <v>0.60865139949109415</v>
       </c>
-      <c r="F35" s="121">
+      <c r="F36" s="115">
         <v>299</v>
       </c>
-      <c r="G35" s="133">
-        <f>$A35*H35/H$37</f>
+      <c r="G36" s="127">
+        <f>$A36*H36/H$38</f>
         <v>0.53373768006065203</v>
       </c>
-      <c r="H35" s="121">
+      <c r="H36" s="115">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="110">
+    <row r="37" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="104">
         <v>1</v>
       </c>
-      <c r="B36" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="133">
-        <f>$A36*D36/D$37</f>
+      <c r="B37" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="127">
+        <f>$A37*D37/D$38</f>
         <v>0.39134860050890585</v>
       </c>
-      <c r="D36" s="121">
+      <c r="D37" s="115">
         <f>769</f>
         <v>769</v>
       </c>
-      <c r="E36" s="133">
-        <f>$A36*F36/F$37</f>
+      <c r="E37" s="127">
+        <f>$A37*F37/F$38</f>
         <v>0.39134860050890585</v>
       </c>
-      <c r="F36" s="121">
+      <c r="F37" s="115">
         <f>769</f>
         <v>769</v>
       </c>
-      <c r="G36" s="133">
-        <f>$A36*H36/H$37</f>
+      <c r="G37" s="127">
+        <f>$A37*H37/H$38</f>
         <v>0.46626231993934797</v>
       </c>
-      <c r="H36" s="121">
+      <c r="H37" s="115">
         <f>369/12</f>
         <v>30.75</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="110"/>
-      <c r="B37" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="121">
-        <f>D35*$A35+D36*$A36</f>
+    <row r="38" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="104"/>
+      <c r="B38" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="128"/>
+      <c r="D38" s="115">
+        <f>D36*$A36+D37*$A37</f>
         <v>1965</v>
       </c>
-      <c r="E37" s="136"/>
-      <c r="F37" s="121">
-        <f>F35*$A35+F36*$A36</f>
+      <c r="E38" s="130"/>
+      <c r="F38" s="115">
+        <f>F36*$A36+F37*$A37</f>
         <v>1965</v>
       </c>
-      <c r="G37" s="136"/>
-      <c r="H37" s="121">
-        <f>H35*$A35+H36*$A36</f>
+      <c r="G38" s="130"/>
+      <c r="H38" s="115">
+        <f>H36*$A36+H37*$A37</f>
         <v>65.95</v>
       </c>
-      <c r="K37" s="140"/>
-    </row>
-    <row r="38" spans="1:11" s="112" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110"/>
-      <c r="B38" s="111" t="s">
+      <c r="K38" s="134"/>
+    </row>
+    <row r="39" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="104"/>
+      <c r="B39" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="135">
+      <c r="C39" s="129">
         <v>0.1</v>
       </c>
-      <c r="D38" s="131">
-        <f>D37*$C38</f>
+      <c r="D39" s="125">
+        <f>D38*$C39</f>
         <v>196.5</v>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="131">
-        <f>F37*$E38</f>
+      <c r="E39" s="131">
         <v>0</v>
       </c>
-      <c r="G38" s="137"/>
-      <c r="H38" s="131">
-        <f>H37*$G38</f>
+      <c r="F39" s="125">
+        <f>F38*$E39</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="123"/>
+      <c r="G39" s="131">
+        <v>0</v>
+      </c>
+      <c r="H39" s="125">
+        <f>H38*$G39</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="124"/>
-    </row>
-    <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="138"/>
-    </row>
-    <row r="43" spans="1:11" s="127" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="125"/>
-      <c r="B43" s="126" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="117"/>
+    </row>
+    <row r="41" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="118"/>
+    </row>
+    <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="132"/>
+    </row>
+    <row r="44" spans="1:11" s="121" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="119"/>
+      <c r="B44" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="129">
-        <f>D$21-D$22+D$29+D$37-D$38</f>
+      <c r="D44" s="123">
+        <f>D$22-D$23+D$30+D$38-D$39</f>
         <v>13393.365</v>
       </c>
-      <c r="E43" s="139"/>
-      <c r="F43" s="129">
-        <f>F$21-F$22+F$29+F$37-F$38</f>
-        <v>13196.826000000001</v>
-      </c>
-      <c r="G43" s="139"/>
-      <c r="H43" s="129">
-        <f>H44*G7</f>
-        <v>17114.16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="127" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="125"/>
-      <c r="B44" s="126" t="s">
+      <c r="E44" s="133"/>
+      <c r="F44" s="123">
+        <f>F$22-F$23+F$30+F$38-F$39</f>
+        <v>14048.14</v>
+      </c>
+      <c r="G44" s="133"/>
+      <c r="H44" s="123">
+        <f>H45*G7</f>
+        <v>18449.400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="121" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="119"/>
+      <c r="B45" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="130">
-        <f>D43/$G$7</f>
+      <c r="D45" s="124">
+        <f>D44/$G$7</f>
         <v>223.22274999999999</v>
       </c>
-      <c r="E44" s="128"/>
-      <c r="F44" s="130">
-        <f t="shared" ref="F44" si="6">F43/$G$7</f>
-        <v>219.94710000000001</v>
-      </c>
-      <c r="G44" s="128"/>
-      <c r="H44" s="130">
-        <f>H$21-H$22+(H$29/G7)+H$37-H38</f>
-        <v>285.23599999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="124">
+        <f t="shared" ref="F45" si="1">F44/$G$7</f>
+        <v>234.13566666666665</v>
+      </c>
+      <c r="G45" s="122"/>
+      <c r="H45" s="124">
+        <f>H$22-H$23+(H$30/G7)+H$38-H39</f>
+        <v>307.49</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="37"/>
@@ -2487,18 +2510,13 @@
       <c r="F49" s="37"/>
       <c r="H49" s="37"/>
     </row>
-    <row r="50" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2508,7 +2526,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2518,7 +2536,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2528,7 +2546,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2555,6 +2573,8 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -2692,27 +2712,35 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -2727,9 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2740,7 +2766,7 @@
     <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="3" customWidth="1"/>
     <col min="11" max="14" width="3.28515625" style="3" customWidth="1"/>
@@ -2749,9 +2775,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="103" t="str">
         <f>'Tabelle 1 HW'!B2</f>
-        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42 //Switch fehlt (Danke Bene)</v>
+        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2778,7 +2804,7 @@
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2823,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>8</v>
@@ -2831,99 +2857,168 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="76">
+      <c r="A8" s="75">
         <v>1</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="76" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="79">
+      <c r="D8" s="77">
+        <v>6</v>
+      </c>
+      <c r="E8" s="77">
         <v>3</v>
       </c>
-      <c r="E8" s="79">
+      <c r="F8" s="77">
+        <f>D8*E8</f>
+        <v>18</v>
+      </c>
+      <c r="G8" s="78">
+        <v>42</v>
+      </c>
+      <c r="H8" s="78">
+        <f>G8*F8</f>
+        <v>756</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>2</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="77">
+        <f>13*4</f>
+        <v>52</v>
+      </c>
+      <c r="E9" s="77">
         <v>3</v>
       </c>
-      <c r="F8" s="79">
-        <f>D8*E8</f>
-        <v>9</v>
-      </c>
-      <c r="G8" s="80">
+      <c r="F9" s="77">
+        <f t="shared" ref="F9:F13" si="0">D9*E9</f>
+        <v>156</v>
+      </c>
+      <c r="G9" s="78">
         <v>42</v>
       </c>
-      <c r="H8" s="80">
-        <f>G8*F8</f>
-        <v>378</v>
-      </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76">
+      <c r="H9" s="78">
+        <f t="shared" ref="H9:H13" si="1">G9*F9</f>
+        <v>6552</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <v>3</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="77">
+        <f>15*4</f>
+        <v>60</v>
+      </c>
+      <c r="E10" s="77">
+        <v>3</v>
+      </c>
+      <c r="F10" s="77">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G10" s="78">
+        <v>42</v>
+      </c>
+      <c r="H10" s="78">
+        <f t="shared" si="1"/>
+        <v>7560</v>
+      </c>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>4</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="77">
+        <f>6*5</f>
+        <v>30</v>
+      </c>
+      <c r="E11" s="77">
         <v>2</v>
       </c>
-      <c r="B9" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76">
-        <v>3</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76">
-        <v>4</v>
-      </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
+      <c r="F11" s="77">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G11" s="78">
+        <v>42</v>
+      </c>
+      <c r="H11" s="78">
+        <f t="shared" si="1"/>
+        <v>2520</v>
+      </c>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76">
+      <c r="A12" s="75">
         <v>5</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="76" t="s">
+        <v>77</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
+      <c r="D12" s="77">
+        <v>8</v>
+      </c>
+      <c r="E12" s="77">
+        <v>2</v>
+      </c>
+      <c r="F12" s="77">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="78">
+        <v>42</v>
+      </c>
+      <c r="H12" s="78">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76">
+      <c r="A13" s="75">
         <v>6</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="76" t="s">
+        <v>78</v>
+      </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="D13" s="77">
+        <v>2</v>
+      </c>
+      <c r="E13" s="77">
+        <v>1</v>
+      </c>
+      <c r="F13" s="77">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="78">
+        <v>42</v>
+      </c>
+      <c r="H13" s="78">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2945,17 +3040,17 @@
       <c r="C15" s="28"/>
       <c r="D15" s="61">
         <f>SUM(D8:D13)</f>
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="61">
-        <f t="shared" ref="F15:H15" si="0">SUM(F8:F13)</f>
-        <v>9</v>
+        <f t="shared" ref="F15:H15" si="2">SUM(F8:F13)</f>
+        <v>432</v>
       </c>
       <c r="G15" s="62"/>
-      <c r="H15" s="63">
-        <f t="shared" si="0"/>
-        <v>378</v>
+      <c r="H15" s="141">
+        <f t="shared" si="2"/>
+        <v>18144</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="30"/>
@@ -2968,19 +3063,19 @@
       <c r="H17" s="36"/>
     </row>
     <row r="18" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="105" t="s">
-        <v>50</v>
+      <c r="E18" s="99" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="44">
         <f>'Tabelle 1 HW'!G7</f>
         <v>60</v>
       </c>
-      <c r="G18" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="81">
+      <c r="G18" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="79">
         <f>H15/'Tabelle 1 HW'!G7</f>
-        <v>6.3</v>
+        <v>302.39999999999998</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -3002,8 +3097,8 @@
   </sheetPr>
   <dimension ref="A2:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,9 +3108,9 @@
     <col min="3" max="3" width="9" style="23" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="31" customWidth="1"/>
     <col min="10" max="13" width="3.28515625" style="31" customWidth="1"/>
     <col min="14" max="21" width="5.28515625" style="31" customWidth="1"/>
@@ -3025,18 +3120,18 @@
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="str">
         <f>'Tabelle 1 HW'!B2</f>
-        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42 //Switch fehlt (Danke Bene)</v>
+        <v xml:space="preserve">    Gruppe: ISCH Mir EGAL 42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
@@ -3061,13 +3156,13 @@
         <v>26</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3076,11 +3171,11 @@
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="33"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="str">
@@ -3091,162 +3186,198 @@
         <f>'Tabelle 1 HW'!B8</f>
         <v>Hardware</v>
       </c>
-      <c r="D10" s="85">
-        <f>'Tabelle 1 HW'!D21-'Tabelle 1 HW'!D22</f>
+      <c r="D10" s="82">
+        <f>'Tabelle 1 HW'!$D$22-'Tabelle 1 HW'!$D$23</f>
         <v>5624.8649999999998</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="82">
+        <f>'Tabelle 1 HW'!D22-'Tabelle 1 HW'!D23</f>
+        <v>5624.8649999999998</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82">
+        <f>'Tabelle 1 HW'!F22-'Tabelle 1 HW'!F23</f>
+        <v>6083.1399999999994</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="str">
-        <f>'Tabelle 1 HW'!A25</f>
+        <f>'Tabelle 1 HW'!A26</f>
         <v>2.)</v>
       </c>
       <c r="B12" s="45" t="str">
-        <f>'Tabelle 1 HW'!B25</f>
+        <f>'Tabelle 1 HW'!B26</f>
         <v xml:space="preserve">laufende Kosten (je Jahr) </v>
       </c>
-      <c r="D12" s="85">
-        <f>'Tabelle 1 HW'!D29</f>
+      <c r="D12" s="82">
+        <f>'Tabelle 1 HW'!D30</f>
         <v>6000</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="82">
+        <f>'Tabelle 1 HW'!F30</f>
+        <v>6000</v>
+      </c>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82">
+        <f>'Tabelle 1 HW'!H30</f>
+        <v>6000</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="str">
-        <f>'Tabelle 1 HW'!A32</f>
+        <f>'Tabelle 1 HW'!A33</f>
         <v>3.)</v>
       </c>
       <c r="B14" s="45" t="str">
-        <f>'Tabelle 1 HW'!B32</f>
+        <f>'Tabelle 1 HW'!B33</f>
         <v>Software</v>
       </c>
-      <c r="D14" s="85">
-        <f>'Tabelle 1 HW'!D37-'Tabelle 1 HW'!D38</f>
+      <c r="D14" s="82">
+        <f>'Tabelle 1 HW'!D38-'Tabelle 1 HW'!D39</f>
         <v>1768.5</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="82">
+        <f>'Tabelle 1 HW'!D38-'Tabelle 1 HW'!D39</f>
+        <v>1768.5</v>
+      </c>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82">
+        <f>'Tabelle 1 HW'!F38-'Tabelle 1 HW'!F39</f>
+        <v>1965</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="101">
         <f>SUM(D10:D17)</f>
         <v>13393.365</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="101">
+        <f t="shared" ref="E18:H18" si="0">SUM(F10:F17)</f>
+        <v>13393.365</v>
+      </c>
+      <c r="G18" s="81"/>
+      <c r="H18" s="101">
+        <f t="shared" si="0"/>
+        <v>14048.14</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="52"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-    </row>
-    <row r="20" spans="1:12" s="104" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100" t="s">
+      <c r="D19" s="82"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="1:12" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="95"/>
+      <c r="B20" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="101">
+      <c r="C20" s="96">
         <v>25</v>
       </c>
-      <c r="D20" s="102">
+      <c r="D20" s="97">
         <f>D18*$C20/100</f>
         <v>3348.3412499999999</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="97">
+        <f t="shared" ref="E20:H20" si="1">F18*$C20/100</f>
+        <v>3348.3412499999999</v>
+      </c>
+      <c r="G20" s="81"/>
+      <c r="H20" s="97">
+        <f t="shared" si="1"/>
+        <v>3512.0349999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="52"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="85">
         <f>D18+D20</f>
         <v>16741.706249999999</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="85">
+        <f>F18+F20</f>
+        <v>16741.706249999999</v>
+      </c>
+      <c r="G22" s="81"/>
+      <c r="H22" s="85">
+        <f t="shared" ref="E22:H22" si="2">H18+H20</f>
+        <v>17560.174999999999</v>
+      </c>
       <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="str">
@@ -3257,92 +3388,110 @@
         <f>'Tabelle2 DL'!B4</f>
         <v>Dienstleistung</v>
       </c>
-      <c r="D24" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
+      <c r="D24" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="92">
-        <f>'Tabelle2 DL'!H15</f>
-        <v>378</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
+      <c r="D26" s="88">
+        <f>'Tabelle2 DL'!$H$15</f>
+        <v>18144</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="88">
+        <f>'Tabelle2 DL'!$H$15</f>
+        <v>18144</v>
+      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="88">
+        <f>'Tabelle2 DL'!$H$15</f>
+        <v>18144</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="82">
+        <v>55</v>
+      </c>
+      <c r="C28" s="80">
         <v>40</v>
       </c>
-      <c r="D28" s="85">
-        <f>D26*$C28/100</f>
-        <v>151.19999999999999</v>
-      </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
+      <c r="D28" s="82">
+        <f>D26*$C$28/100</f>
+        <v>7257.6</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="82">
+        <f t="shared" ref="E28:H28" si="3">F26*$C$28/100</f>
+        <v>7257.6</v>
+      </c>
+      <c r="G28" s="81"/>
+      <c r="H28" s="82">
+        <f t="shared" si="3"/>
+        <v>7257.6</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="52"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="85">
         <f>D26+D28</f>
-        <v>529.20000000000005</v>
-      </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
+        <v>25401.599999999999</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="85">
+        <f t="shared" ref="E30:H30" si="4">F26+F28</f>
+        <v>25401.599999999999</v>
+      </c>
+      <c r="G30" s="81"/>
+      <c r="H30" s="85">
+        <f t="shared" si="4"/>
+        <v>25401.599999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="52"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
@@ -3350,11 +3499,11 @@
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
@@ -3366,185 +3515,201 @@
       </c>
       <c r="B33" s="58"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="89">
         <f>D22+D30</f>
-        <v>17270.90625</v>
-      </c>
-      <c r="E34" s="95">
+        <v>42143.306249999994</v>
+      </c>
+      <c r="E34" s="90">
         <f>E38-E36</f>
-        <v>99</v>
-      </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
+        <v>99.95</v>
+      </c>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
     </row>
     <row r="35" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="83">
-        <v>1</v>
-      </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="95">
+        <v>75</v>
+      </c>
+      <c r="C36" s="142">
+        <v>0.05</v>
+      </c>
+      <c r="D36" s="91">
+        <f>D34+D34*C36</f>
+        <v>44250.471562499995</v>
+      </c>
+      <c r="E36" s="144">
         <f>C36</f>
-        <v>1</v>
-      </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="145"/>
     </row>
     <row r="37" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="52"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="96"/>
-      <c r="E38" s="95">
+        <v>74</v>
+      </c>
+      <c r="C38" s="142">
+        <v>0.03</v>
+      </c>
+      <c r="D38" s="91">
+        <f>C38*D36/97+D36</f>
+        <v>44264.157275354373</v>
+      </c>
+      <c r="E38" s="90">
         <v>100</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="146"/>
     </row>
     <row r="39" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="52"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="96">
-        <f>D42-D38</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
+        <v>73</v>
+      </c>
+      <c r="C40" s="142">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="91">
+        <f>C40*D38/90+D38</f>
+        <v>44313.339672326991</v>
+      </c>
+      <c r="E40" s="87"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
     </row>
     <row r="41" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="52"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="96">
-        <f>D38*100/(100-$C40)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
+        <v>72</v>
+      </c>
+      <c r="C42" s="142">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="91">
+        <f>D40+D40*C42</f>
+        <v>45199.606465773533</v>
+      </c>
+      <c r="E42" s="87"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
     </row>
     <row r="43" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="52"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="96">
-        <f>D42*$C44/100</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
+        <v>49</v>
+      </c>
+      <c r="C44" s="143">
+        <v>0.19</v>
+      </c>
+      <c r="D44" s="91">
+        <f>D42*C44</f>
+        <v>8587.9252284969716</v>
+      </c>
+      <c r="E44" s="87"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
     </row>
     <row r="45" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="52"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="97">
+      <c r="D46" s="92">
         <f>D42+D44</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
+        <v>53787.531694270503</v>
+      </c>
+      <c r="E46" s="93"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="31"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="31"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="31"/>
@@ -3559,38 +3724,4 @@
     <oddFooter>&amp;C&amp;P&amp;R&amp;9&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Haushüter_App-Kalk Gruppe 42.xlsx
+++ b/Haushüter_App-Kalk Gruppe 42.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle 1 HW" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Kalkulation</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Kauf (Ang.b))</t>
+  </si>
+  <si>
+    <t>Kaspersky Total Security</t>
   </si>
 </sst>
 </file>
@@ -1233,6 +1236,30 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="21" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,30 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1555,10 +1558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,14 +1594,14 @@
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="18"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,34 +1678,34 @@
       <c r="B8" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="137" t="s">
+      <c r="D8" s="146"/>
+      <c r="E8" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="G8" s="137" t="s">
+      <c r="F8" s="146"/>
+      <c r="G8" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="138"/>
+      <c r="H8" s="146"/>
     </row>
     <row r="9" spans="1:11" s="109" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="111"/>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="135" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="135" t="s">
+      <c r="F9" s="144"/>
+      <c r="G9" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="136"/>
+      <c r="H9" s="144"/>
     </row>
     <row r="10" spans="1:11" s="109" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="112"/>
@@ -1736,22 +1739,22 @@
         <v>30</v>
       </c>
       <c r="C11" s="127">
-        <f>A11*D11/$D$22</f>
-        <v>0.12064289542949032</v>
+        <f t="shared" ref="C11:C21" si="0">A11*D11/$D$22</f>
+        <v>0.11669315735468686</v>
       </c>
       <c r="D11" s="115">
         <v>754</v>
       </c>
       <c r="E11" s="127">
-        <f>A11*F11/$F$22</f>
-        <v>0.10666530771936862</v>
+        <f t="shared" ref="E11:E21" si="1">A11*F11/$F$22</f>
+        <v>0.10297518064220229</v>
       </c>
       <c r="F11" s="115">
         <v>648.86</v>
       </c>
       <c r="G11" s="127">
-        <f>A11*H11/$H$22</f>
-        <v>7.0580754557015693E-2</v>
+        <f t="shared" ref="G11:G21" si="2">A11*H11/$H$22</f>
+        <v>6.7254611552443791E-2</v>
       </c>
       <c r="H11" s="126">
         <v>9.99</v>
@@ -1766,22 +1769,22 @@
         <v>56</v>
       </c>
       <c r="C12" s="127">
-        <f>A12*D12/$D$22</f>
-        <v>3.2000768018432442E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0953092136521712E-2</v>
       </c>
       <c r="D12" s="115">
         <v>200</v>
       </c>
       <c r="E12" s="127">
-        <f>A12*F12/$F$22</f>
-        <v>3.6149094053400055E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4898502332121384E-2</v>
       </c>
       <c r="F12" s="126">
         <v>219.9</v>
       </c>
       <c r="G12" s="127">
-        <f>A12*H12/$H$22</f>
-        <v>3.5325702981489335E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3660966742964857E-2</v>
       </c>
       <c r="H12" s="126">
         <v>5</v>
@@ -1796,22 +1799,22 @@
         <v>57</v>
       </c>
       <c r="C13" s="127">
-        <f>A13*D13/$D$22</f>
-        <v>0.15120362888709329</v>
+        <f t="shared" si="0"/>
+        <v>0.14625336034506509</v>
       </c>
       <c r="D13" s="115">
         <v>157.5</v>
       </c>
       <c r="E13" s="127">
-        <f>A13*F13/$F$22</f>
-        <v>0.14686494146115331</v>
+        <f t="shared" si="1"/>
+        <v>0.141784092694485</v>
       </c>
       <c r="F13" s="115">
         <v>148.9</v>
       </c>
       <c r="G13" s="127">
-        <f>A13*H13/$H$22</f>
-        <v>8.0118694362017809E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.6343072573044304E-2</v>
       </c>
       <c r="H13" s="126">
         <v>1.89</v>
@@ -1826,22 +1829,22 @@
         <v>58</v>
       </c>
       <c r="C14" s="127">
-        <f>A14*D14/$D$22</f>
-        <v>1.5993983855612535E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.547035544983355E-2</v>
       </c>
       <c r="D14" s="115">
         <v>24.99</v>
       </c>
       <c r="E14" s="127">
-        <f>A14*F14/$F$22</f>
-        <v>2.62956302172891E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.538592284241081E-2</v>
       </c>
       <c r="F14" s="126">
         <v>39.99</v>
       </c>
       <c r="G14" s="127">
-        <f>A14*H14/$H$22</f>
-        <v>2.7977956761339552E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.6659485660428167E-2</v>
       </c>
       <c r="H14" s="126">
         <v>0.99</v>
@@ -1856,22 +1859,22 @@
         <v>59</v>
       </c>
       <c r="C15" s="127">
-        <f>A15*D15/$D$22</f>
-        <v>1.9520468491243791E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8881386203278245E-2</v>
       </c>
       <c r="D15" s="115">
         <v>122</v>
       </c>
       <c r="E15" s="127">
-        <f>A15*F15/$F$22</f>
-        <v>2.4656674020325033E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3803666961322814E-2</v>
       </c>
       <c r="F15" s="126">
         <v>149.99</v>
       </c>
       <c r="G15" s="127">
-        <f>A15*H15/$H$22</f>
-        <v>3.17931326833404E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.0294870068668375E-2</v>
       </c>
       <c r="H15" s="126">
         <v>4.5</v>
@@ -1886,22 +1889,22 @@
         <v>60</v>
       </c>
       <c r="C16" s="127">
-        <f>A16*D16/$D$22</f>
-        <v>0.20768498443962657</v>
+        <f t="shared" si="0"/>
+        <v>0.20088556796602591</v>
       </c>
       <c r="D16" s="115">
         <v>649</v>
       </c>
       <c r="E16" s="127">
-        <f>A16*F16/$F$22</f>
-        <v>0.16406000848246138</v>
+        <f t="shared" si="1"/>
+        <v>0.1583842898019879</v>
       </c>
       <c r="F16" s="126">
         <v>499</v>
       </c>
       <c r="G16" s="127">
-        <f>A16*H16/$H$22</f>
-        <v>0.11304224954076587</v>
+        <f t="shared" si="2"/>
+        <v>0.10771509357748756</v>
       </c>
       <c r="H16" s="126">
         <v>8</v>
@@ -1916,24 +1919,24 @@
         <v>61</v>
       </c>
       <c r="C17" s="127">
-        <f>A17*D17/$D$22</f>
-        <v>0.22363736729681516</v>
+        <f t="shared" si="0"/>
+        <v>0.21631568439608198</v>
       </c>
       <c r="D17" s="115">
         <f>159.9+538.95</f>
         <v>698.85</v>
       </c>
       <c r="E17" s="127">
-        <f>A17*F17/$F$22</f>
-        <v>0.26033923269890225</v>
+        <f t="shared" si="1"/>
+        <v>0.25133269746854936</v>
       </c>
       <c r="F17" s="126">
         <f>621.85+169.99</f>
         <v>791.84</v>
       </c>
       <c r="G17" s="127">
-        <f>A17*H17/$H$22</f>
-        <v>0.14130281192595734</v>
+        <f t="shared" si="2"/>
+        <v>0.13464386697185943</v>
       </c>
       <c r="H17" s="126">
         <v>10</v>
@@ -1948,22 +1951,22 @@
         <v>62</v>
       </c>
       <c r="C18" s="127">
-        <f>A18*D18/$D$22</f>
-        <v>1.7598822371736923E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7022653020480113E-2</v>
       </c>
       <c r="D18" s="115">
         <v>109.99</v>
       </c>
       <c r="E18" s="127">
-        <f>A18*F18/$F$22</f>
-        <v>2.1352459420628161E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0613762928236683E-2</v>
       </c>
       <c r="F18" s="126">
         <v>129.88999999999999</v>
       </c>
       <c r="G18" s="127">
-        <f>A18*H18/$H$22</f>
-        <v>2.6776882859968914E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5515012791167364E-2</v>
       </c>
       <c r="H18" s="126">
         <v>3.79</v>
@@ -1978,24 +1981,24 @@
         <v>64</v>
       </c>
       <c r="C19" s="127">
-        <f>A19*D19/$D$22</f>
-        <v>9.8146355512532299E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.493313358271209E-2</v>
       </c>
       <c r="D19" s="115">
         <f>126.36+26.99</f>
         <v>153.35</v>
       </c>
       <c r="E19" s="127">
-        <f>A19*F19/$F$22</f>
-        <v>8.8697613403604061E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5629085576714017E-2</v>
       </c>
       <c r="F19" s="126">
         <f>65.99+68.9</f>
         <v>134.88999999999999</v>
       </c>
       <c r="G19" s="127">
-        <f>A19*H19/$H$22</f>
-        <v>5.6238519146531017E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.358825905480006E-2</v>
       </c>
       <c r="H19" s="126">
         <v>1.99</v>
@@ -2010,23 +2013,23 @@
         <v>63</v>
       </c>
       <c r="C20" s="127">
-        <f>A20*D20/$D$22</f>
-        <v>0.11357072569741676</v>
+        <f t="shared" si="0"/>
+        <v>0.10985252399251556</v>
       </c>
       <c r="D20" s="115">
         <f>15.99+54.99</f>
         <v>70.98</v>
       </c>
       <c r="E20" s="127">
-        <f>A20*F20/$F$22</f>
-        <v>0.12491903852286813</v>
+        <f t="shared" si="1"/>
+        <v>0.12059741665383829</v>
       </c>
       <c r="F20" s="115">
         <v>75.989999999999995</v>
       </c>
       <c r="G20" s="127">
-        <f>A20*H20/$H$22</f>
-        <v>0.41684329518157415</v>
+        <f t="shared" si="2"/>
+        <v>0.39719940756698535</v>
       </c>
       <c r="H20" s="115">
         <v>5.9</v>
@@ -2041,22 +2044,22 @@
         <v>80</v>
       </c>
       <c r="C21" s="127">
-        <f>A21*D21/$D$22</f>
-        <v>3.3847212333095997E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2739085552799009E-2</v>
       </c>
       <c r="D21" s="115">
         <v>211.54</v>
       </c>
       <c r="E21" s="127">
-        <f>A21*F21/$F$22</f>
-        <v>3.583511147203583E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4595382098131608E-2</v>
       </c>
       <c r="F21" s="115">
         <v>217.99</v>
       </c>
       <c r="G21" s="127">
-        <f>A21*H21/$H$22</f>
-        <v>4.9455984174085067E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7125353440150806E-2</v>
       </c>
       <c r="H21" s="115">
         <v>7</v>
@@ -2070,18 +2073,18 @@
       </c>
       <c r="C22" s="128"/>
       <c r="D22" s="115">
-        <f>SUM($A$11*D11+$A$12*D12+$A$13*D13+$A$14*D14+$A$15*D15+$A$16*D16+$A$17*D17+$A$18*D18+$A$19*D19+$A$20*D20)</f>
-        <v>6249.8499999999995</v>
+        <f>SUM($A$11*D11+$A$12*D12+$A$13*D13+$A$14*D14+$A$15*D15+$A$16*D16+$A$17*D17+$A$18*D18+$A$19*D19+$A$20*D20+D21*A21)</f>
+        <v>6461.3899999999994</v>
       </c>
       <c r="E22" s="130"/>
       <c r="F22" s="115">
-        <f t="shared" ref="F22" si="0">SUM($A$11*F11+$A$12*F12+$A$13*F13+$A$14*F14+$A$15*F15+$A$16*F16+$A$17*F17+$A$18*F18+$A$19*F19+$A$20*F20)</f>
-        <v>6083.1399999999994</v>
+        <f>SUM($A$11*F11+$A$12*F12+$A$13*F13+$A$14*F14+$A$15*F15+$A$16*F16+$A$17*F17+$A$18*F18+$A$19*F19+$A$20*F20+F21*A21)</f>
+        <v>6301.1299999999992</v>
       </c>
       <c r="G22" s="130"/>
       <c r="H22" s="115">
-        <f>SUM($A$11*H11+$A$12*H12+$A$13*H13+$A$14*H14+$A$15*H15+$A$16*H16+$A$17*H17+$A$18*H18+$A$19*H19+$A$20*H20)</f>
-        <v>141.54</v>
+        <f>SUM($A$11*H11+$A$12*H12+$A$13*H13+$A$14*H14+$A$15*H15+$A$16*H16+$A$17*H17+$A$18*H18+$A$19*H19+$A$20*H20+H21*A21)</f>
+        <v>148.54</v>
       </c>
       <c r="K22" s="134"/>
     </row>
@@ -2095,7 +2098,7 @@
       </c>
       <c r="D23" s="125">
         <f>$C$23*D22</f>
-        <v>624.98500000000001</v>
+        <v>646.13900000000001</v>
       </c>
       <c r="E23" s="131"/>
       <c r="F23" s="125">
@@ -2136,29 +2139,29 @@
       <c r="B26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="137" t="str">
+      <c r="C26" s="145" t="str">
         <f>C33</f>
         <v>Kauf a)</v>
       </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="137" t="s">
+      <c r="D26" s="146"/>
+      <c r="E26" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="138"/>
-      <c r="G26" s="137" t="s">
+      <c r="F26" s="146"/>
+      <c r="G26" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="138"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" spans="1:11" s="109" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="111"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="136"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="144"/>
     </row>
     <row r="28" spans="1:11" s="109" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="112">
@@ -2264,31 +2267,31 @@
       <c r="B33" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="137" t="str">
+      <c r="C33" s="145" t="str">
         <f>C8</f>
         <v>Kauf a)</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="137" t="str">
+      <c r="D33" s="146"/>
+      <c r="E33" s="145" t="str">
         <f>E8</f>
         <v>Kauf B)</v>
       </c>
-      <c r="F33" s="138"/>
-      <c r="G33" s="137" t="str">
+      <c r="F33" s="146"/>
+      <c r="G33" s="145" t="str">
         <f>G8</f>
         <v>Miete a)</v>
       </c>
-      <c r="H33" s="138"/>
+      <c r="H33" s="146"/>
     </row>
     <row r="34" spans="1:11" s="109" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="110"/>
       <c r="B34" s="111"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="136"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="144"/>
     </row>
     <row r="35" spans="1:11" s="109" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="112">
@@ -2324,22 +2327,22 @@
         <v>70</v>
       </c>
       <c r="C36" s="127">
-        <f>$A36*D36/D$38</f>
-        <v>0.60865139949109415</v>
+        <f>$A36*D36/D$39</f>
+        <v>0.52838524409100951</v>
       </c>
       <c r="D36" s="115">
         <v>299</v>
       </c>
       <c r="E36" s="127">
-        <f>$A36*F36/F$38</f>
-        <v>0.60865139949109415</v>
+        <f>$A36*F36/F$39</f>
+        <v>0.52838524409100951</v>
       </c>
       <c r="F36" s="115">
         <v>299</v>
       </c>
       <c r="G36" s="127">
-        <f>$A36*H36/H$38</f>
-        <v>0.53373768006065203</v>
+        <f>$A36*H36/H$39</f>
+        <v>0.38755849160473438</v>
       </c>
       <c r="H36" s="115">
         <v>8.8000000000000007</v>
@@ -2353,147 +2356,172 @@
         <v>71</v>
       </c>
       <c r="C37" s="127">
-        <f>$A37*D37/D$38</f>
-        <v>0.39134860050890585</v>
+        <f>$A37*D37/D$39</f>
+        <v>0.33973934172741332</v>
       </c>
       <c r="D37" s="115">
         <f>769</f>
         <v>769</v>
       </c>
       <c r="E37" s="127">
-        <f>$A37*F37/F$38</f>
-        <v>0.39134860050890585</v>
+        <f>$A37*F37/F$39</f>
+        <v>0.33973934172741332</v>
       </c>
       <c r="F37" s="115">
         <f>769</f>
         <v>769</v>
       </c>
       <c r="G37" s="127">
-        <f>$A37*H37/H$38</f>
-        <v>0.46626231993934797</v>
+        <f>$A37*H37/H$39</f>
+        <v>0.33856317093311311</v>
       </c>
       <c r="H37" s="115">
         <f>369/12</f>
         <v>30.75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
+    <row r="38" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="104">
+        <v>3</v>
+      </c>
       <c r="B38" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="128"/>
+        <v>83</v>
+      </c>
+      <c r="C38" s="127">
+        <f>$A38*D38/D$39</f>
+        <v>0.13187541418157719</v>
+      </c>
       <c r="D38" s="115">
-        <f>D36*$A36+D37*$A37</f>
-        <v>1965</v>
-      </c>
-      <c r="E38" s="130"/>
+        <v>99.5</v>
+      </c>
+      <c r="E38" s="127">
+        <f t="shared" ref="E38:H38" si="3">$A38*F38/F$39</f>
+        <v>0.13187541418157719</v>
+      </c>
       <c r="F38" s="115">
-        <f>F36*$A36+F37*$A37</f>
-        <v>1965</v>
-      </c>
-      <c r="G38" s="130"/>
+        <v>99.5</v>
+      </c>
+      <c r="G38" s="127">
+        <f t="shared" ref="G38:H38" si="4">$A38*H38/H$39</f>
+        <v>0.27387833746215251</v>
+      </c>
       <c r="H38" s="115">
-        <f>H36*$A36+H37*$A37</f>
-        <v>65.95</v>
-      </c>
-      <c r="K38" s="134"/>
+        <f>99.5/12</f>
+        <v>8.2916666666666661</v>
+      </c>
     </row>
     <row r="39" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="104"/>
       <c r="B39" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="128"/>
+      <c r="D39" s="115">
+        <f>D36*$A36+D37*$A37+D38*A38</f>
+        <v>2263.5</v>
+      </c>
+      <c r="E39" s="130"/>
+      <c r="F39" s="115">
+        <f>F36*$A36+F37*$A37+F38*A38</f>
+        <v>2263.5</v>
+      </c>
+      <c r="G39" s="130"/>
+      <c r="H39" s="115">
+        <f>H36*$A36+H37*$A37+H38*A38</f>
+        <v>90.825000000000003</v>
+      </c>
+      <c r="K39" s="134"/>
+    </row>
+    <row r="40" spans="1:11" s="106" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="104"/>
+      <c r="B40" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="129">
+      <c r="C40" s="129">
         <v>0.1</v>
       </c>
-      <c r="D39" s="125">
-        <f>D38*$C39</f>
-        <v>196.5</v>
-      </c>
-      <c r="E39" s="131">
+      <c r="D40" s="125">
+        <f>D39*$C40</f>
+        <v>226.35000000000002</v>
+      </c>
+      <c r="E40" s="131">
         <v>0</v>
       </c>
-      <c r="F39" s="125">
-        <f>F38*$E39</f>
+      <c r="F40" s="125">
+        <f>F39*$E40</f>
         <v>0</v>
       </c>
-      <c r="G39" s="131">
+      <c r="G40" s="131">
         <v>0</v>
       </c>
-      <c r="H39" s="125">
-        <f>H38*$G39</f>
+      <c r="H40" s="125">
+        <f>H39*$G40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="117"/>
-    </row>
     <row r="41" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="118"/>
-    </row>
-    <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="132"/>
-    </row>
-    <row r="44" spans="1:11" s="121" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="123">
-        <f>D$22-D$23+D$30+D$38-D$39</f>
-        <v>13393.365</v>
-      </c>
-      <c r="E44" s="133"/>
-      <c r="F44" s="123">
-        <f>F$22-F$23+F$30+F$38-F$39</f>
-        <v>14048.14</v>
-      </c>
-      <c r="G44" s="133"/>
-      <c r="H44" s="123">
-        <f>H45*G7</f>
-        <v>18449.400000000001</v>
-      </c>
+      <c r="A41" s="69"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="117"/>
+    </row>
+    <row r="42" spans="1:11" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="118"/>
+    </row>
+    <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="132"/>
     </row>
     <row r="45" spans="1:11" s="121" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="119"/>
       <c r="B45" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="123">
+        <f>D$22-D$23+D$30+D$39-D$40</f>
+        <v>13852.401</v>
+      </c>
+      <c r="E45" s="133"/>
+      <c r="F45" s="123">
+        <f>F$22-F$23+F$30+F$39-F$40</f>
+        <v>14564.63</v>
+      </c>
+      <c r="G45" s="133"/>
+      <c r="H45" s="123">
+        <f>H46*G7</f>
+        <v>20361.900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="121" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="119"/>
+      <c r="B46" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="124">
-        <f>D44/$G$7</f>
-        <v>223.22274999999999</v>
-      </c>
-      <c r="E45" s="122"/>
-      <c r="F45" s="124">
-        <f t="shared" ref="F45" si="1">F44/$G$7</f>
-        <v>234.13566666666665</v>
-      </c>
-      <c r="G45" s="122"/>
-      <c r="H45" s="124">
-        <f>H$22-H$23+(H$30/G7)+H$38-H39</f>
-        <v>307.49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="D46" s="124">
+        <f>D45/$G$7</f>
+        <v>230.87334999999999</v>
+      </c>
+      <c r="E46" s="122"/>
+      <c r="F46" s="124">
+        <f t="shared" ref="F46" si="5">F45/$G$7</f>
+        <v>242.74383333333333</v>
+      </c>
+      <c r="G46" s="122"/>
+      <c r="H46" s="124">
+        <f>H$22-H$23+(H$30/G7)+H$39-H40</f>
+        <v>339.36500000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="37"/>
@@ -2515,18 +2543,13 @@
       <c r="F50" s="37"/>
       <c r="H50" s="37"/>
     </row>
-    <row r="51" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2536,7 +2559,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2546,7 +2569,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2556,7 +2579,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2583,6 +2606,8 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -2720,8 +2745,19 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
@@ -2738,9 +2774,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
@@ -3048,7 +3081,7 @@
         <v>432</v>
       </c>
       <c r="G15" s="62"/>
-      <c r="H15" s="141">
+      <c r="H15" s="135">
         <f t="shared" si="2"/>
         <v>18144</v>
       </c>
@@ -3097,7 +3130,7 @@
   </sheetPr>
   <dimension ref="A2:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -3188,17 +3221,17 @@
       </c>
       <c r="D10" s="82">
         <f>'Tabelle 1 HW'!$D$22-'Tabelle 1 HW'!$D$23</f>
-        <v>5624.8649999999998</v>
+        <v>5815.2509999999993</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="82">
         <f>'Tabelle 1 HW'!D22-'Tabelle 1 HW'!D23</f>
-        <v>5624.8649999999998</v>
+        <v>5815.2509999999993</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="82">
         <f>'Tabelle 1 HW'!F22-'Tabelle 1 HW'!F23</f>
-        <v>6083.1399999999994</v>
+        <v>6301.1299999999992</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,18 +3284,18 @@
         <v>Software</v>
       </c>
       <c r="D14" s="82">
-        <f>'Tabelle 1 HW'!D38-'Tabelle 1 HW'!D39</f>
-        <v>1768.5</v>
+        <f>'Tabelle 1 HW'!D39-'Tabelle 1 HW'!D40</f>
+        <v>2037.15</v>
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="82">
-        <f>'Tabelle 1 HW'!D38-'Tabelle 1 HW'!D39</f>
-        <v>1768.5</v>
+        <f>'Tabelle 1 HW'!D39-'Tabelle 1 HW'!D40</f>
+        <v>2037.15</v>
       </c>
       <c r="G14" s="81"/>
       <c r="H14" s="82">
-        <f>'Tabelle 1 HW'!F38-'Tabelle 1 HW'!F39</f>
-        <v>1965</v>
+        <f>'Tabelle 1 HW'!F39-'Tabelle 1 HW'!F40</f>
+        <v>2263.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3296,17 +3329,17 @@
       </c>
       <c r="D18" s="101">
         <f>SUM(D10:D17)</f>
-        <v>13393.365</v>
+        <v>13852.401</v>
       </c>
       <c r="E18" s="66"/>
       <c r="F18" s="101">
-        <f t="shared" ref="E18:H18" si="0">SUM(F10:F17)</f>
-        <v>13393.365</v>
+        <f t="shared" ref="F18:H18" si="0">SUM(F10:F17)</f>
+        <v>13852.401</v>
       </c>
       <c r="G18" s="81"/>
       <c r="H18" s="101">
         <f t="shared" si="0"/>
-        <v>14048.14</v>
+        <v>14564.63</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3328,17 +3361,17 @@
       </c>
       <c r="D20" s="97">
         <f>D18*$C20/100</f>
-        <v>3348.3412499999999</v>
+        <v>3463.1002500000004</v>
       </c>
       <c r="E20" s="66"/>
       <c r="F20" s="97">
-        <f t="shared" ref="E20:H20" si="1">F18*$C20/100</f>
-        <v>3348.3412499999999</v>
+        <f t="shared" ref="F20:H20" si="1">F18*$C20/100</f>
+        <v>3463.1002500000004</v>
       </c>
       <c r="G20" s="81"/>
       <c r="H20" s="97">
         <f t="shared" si="1"/>
-        <v>3512.0349999999999</v>
+        <v>3641.1574999999998</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,17 +3390,17 @@
       </c>
       <c r="D22" s="85">
         <f>D18+D20</f>
-        <v>16741.706249999999</v>
+        <v>17315.501250000001</v>
       </c>
       <c r="E22" s="66"/>
       <c r="F22" s="85">
         <f>F18+F20</f>
-        <v>16741.706249999999</v>
+        <v>17315.501250000001</v>
       </c>
       <c r="G22" s="81"/>
       <c r="H22" s="85">
-        <f t="shared" ref="E22:H22" si="2">H18+H20</f>
-        <v>17560.174999999999</v>
+        <f t="shared" ref="H22" si="2">H18+H20</f>
+        <v>18205.787499999999</v>
       </c>
       <c r="I22" s="60"/>
     </row>
@@ -3446,7 +3479,7 @@
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="82">
-        <f t="shared" ref="E28:H28" si="3">F26*$C$28/100</f>
+        <f t="shared" ref="F28:H28" si="3">F26*$C$28/100</f>
         <v>7257.6</v>
       </c>
       <c r="G28" s="81"/>
@@ -3475,7 +3508,7 @@
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="85">
-        <f t="shared" ref="E30:H30" si="4">F26+F28</f>
+        <f t="shared" ref="F30:H30" si="4">F26+F28</f>
         <v>25401.599999999999</v>
       </c>
       <c r="G30" s="81"/>
@@ -3528,7 +3561,7 @@
       </c>
       <c r="D34" s="89">
         <f>D22+D30</f>
-        <v>42143.306249999994</v>
+        <v>42717.10125</v>
       </c>
       <c r="E34" s="90">
         <f>E38-E36</f>
@@ -3551,20 +3584,20 @@
       <c r="B36" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="142">
+      <c r="C36" s="136">
         <v>0.05</v>
       </c>
       <c r="D36" s="91">
         <f>D34+D34*C36</f>
-        <v>44250.471562499995</v>
-      </c>
-      <c r="E36" s="144">
+        <v>44852.956312499999</v>
+      </c>
+      <c r="E36" s="138">
         <f>C36</f>
         <v>0.05</v>
       </c>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
-      <c r="H36" s="145"/>
+      <c r="H36" s="139"/>
     </row>
     <row r="37" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -3580,19 +3613,19 @@
       <c r="B38" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="142">
+      <c r="C38" s="136">
         <v>0.03</v>
       </c>
       <c r="D38" s="91">
         <f>C38*D36/97+D36</f>
-        <v>44264.157275354373</v>
+        <v>44866.828360844069</v>
       </c>
       <c r="E38" s="90">
         <v>100</v>
       </c>
       <c r="F38" s="81"/>
       <c r="G38" s="81"/>
-      <c r="H38" s="146"/>
+      <c r="H38" s="140"/>
     </row>
     <row r="39" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -3608,12 +3641,12 @@
       <c r="B40" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="142">
+      <c r="C40" s="136">
         <v>0.1</v>
       </c>
       <c r="D40" s="91">
         <f>C40*D38/90+D38</f>
-        <v>44313.339672326991</v>
+        <v>44916.680392356116</v>
       </c>
       <c r="E40" s="87"/>
       <c r="F40" s="81"/>
@@ -3634,12 +3667,12 @@
       <c r="B42" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="142">
+      <c r="C42" s="136">
         <v>0.02</v>
       </c>
       <c r="D42" s="91">
         <f>D40+D40*C42</f>
-        <v>45199.606465773533</v>
+        <v>45815.014000203242</v>
       </c>
       <c r="E42" s="87"/>
       <c r="F42" s="81"/>
@@ -3660,12 +3693,12 @@
       <c r="B44" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="143">
+      <c r="C44" s="137">
         <v>0.19</v>
       </c>
       <c r="D44" s="91">
         <f>D42*C44</f>
-        <v>8587.9252284969716</v>
+        <v>8704.8526600386158</v>
       </c>
       <c r="E44" s="87"/>
       <c r="F44" s="81"/>
@@ -3688,7 +3721,7 @@
       </c>
       <c r="D46" s="92">
         <f>D42+D44</f>
-        <v>53787.531694270503</v>
+        <v>54519.86666024186</v>
       </c>
       <c r="E46" s="93"/>
       <c r="F46" s="81"/>
